--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:02+00:00</t>
+    <t>2023-03-06T10:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:50+00:00</t>
+    <t>2023-03-06T10:21:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:21:46+00:00</t>
+    <t>2023-03-07T14:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:51:30+00:00</t>
+    <t>2023-03-08T07:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:25:49+00:00</t>
+    <t>2023-03-08T07:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="651">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:58:39+00:00</t>
+    <t>2023-03-09T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -618,7 +618,26 @@
 </t>
   </si>
   <si>
+    <t>statut (LieuRealisationOffre) : Indique si le lieu est opérationnel, fermé temporairement ou fermé définitivement</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR pour indiquer si le lieu est opérationnel, fermé temporairement ou fermé définitivement.</t>
+  </si>
+  <si>
+    <t>Location.extension:ror-commune-cog</t>
+  </si>
+  <si>
+    <t>ror-commune-cog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-commune-cog}
+</t>
+  </si>
+  <si>
+    <t>communeCog (LieuRealisationOffre) : Code officiel géographique (COG) de la commune dans laquelle le lieu est situé</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour représenter le code officiel géographique (COG) de la commune dans laquelle le lieu est situé.</t>
   </si>
   <si>
     <t>Location.extension:ror-location-equipment</t>
@@ -631,7 +650,26 @@
 </t>
   </si>
   <si>
+    <t>EquipementSpecifique : Ressource matérielle discriminante pour la réalisation d'une prestation</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR pour décrire une ressource matérielle discriminante pour la réalisation d'une prestation.</t>
+  </si>
+  <si>
+    <t>Location.extension:ror-location-equipment-limit</t>
+  </si>
+  <si>
+    <t>ror-location-equipment-limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-equipment-limit}
+</t>
+  </si>
+  <si>
+    <t>LimiteCaracteristiqueEquipement : limites que peut supporter l'équipement le plus tolérant parmi les équipements spécifiques de même type dans cette organisation</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui précise les limites que peut supporter l'équipement le plus tolérant parmi les équipements spécifiques de même type dans cette organisation.</t>
   </si>
   <si>
     <t>Location.extension:ror-location-residential-capacity</t>
@@ -644,6 +682,9 @@
 </t>
   </si>
   <si>
+    <t>CapaciteHabitation : type d'habitation adapté à la réalisation d'une offre</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR qui décrit un type d'habitation adapté à la réalisation d'une offre.</t>
   </si>
   <si>
@@ -657,33 +698,10 @@
 </t>
   </si>
   <si>
+    <t>CapacitePriseCharge :  + CapaciteAccueilOperationnelle</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR qui indique une série d’enregistrements indiquant la quantité de lit (ou de place) de l'entité pour un statut et une temporalité donnés.</t>
-  </si>
-  <si>
-    <t>Location.extension:ror-location-equipment-limit</t>
-  </si>
-  <si>
-    <t>ror-location-equipment-limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-equipment-limit}
-</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR qui précise les limites que peut supporter l'équipement le plus tolérant parmi les équipements spécifiques de même type dans cette organisation.</t>
-  </si>
-  <si>
-    <t>Location.extension:ror-commune-cog</t>
-  </si>
-  <si>
-    <t>ror-commune-cog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-commune-cog}
-</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR pour représenter le code officiel géographique (COG) de la commune dans laquelle le lieu est situé.</t>
   </si>
   <si>
     <t>Location.modifierExtension</t>
@@ -734,6 +752,9 @@
     <t>idExterneSynchro</t>
   </si>
   <si>
+    <t>idExterneSynchro (Location) : Identifiant défini par le porteur d’offre pour la zone d’hébergement des lits</t>
+  </si>
+  <si>
     <t>Location.identifier:idExterneSynchro.id</t>
   </si>
   <si>
@@ -800,13 +821,16 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J236-TypeIdentifiant-ROR/FHIR/JDV-J236-TypeIdentifiant-ROR"/&gt;
+    &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_XXX-TypeIdentifiantRessourceOperationnelle/FHIR/TRE_XXX-TypeIdentifiantRessourceOperationnelle"/&gt;
     &lt;code value="26"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J236-TypeIdentifiant-ROR/FHIR/JDV-J236-TypeIdentifiant-ROR</t>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -928,6 +952,9 @@
     <t>idLocation</t>
   </si>
   <si>
+    <t>identifiant (LieuRealisationOffre) : Identifiant fonctionnel du lieu</t>
+  </si>
+  <si>
     <t>Location.identifier:idLocation.id</t>
   </si>
   <si>
@@ -942,7 +969,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://mos.esante.gouv.fr/NOS/JDV_J236-TypeIdentifiant-ROR/FHIR/JDV-J236-TypeIdentifiant-ROR"/&gt;
+    &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_XXX-TypeIdentifiantRessourceOperationnelle/FHIR/TRE_XXX-TypeIdentifiantRessourceOperationnelle"/&gt;
     &lt;code value="25"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1005,7 +1032,7 @@
     <t>Location.name</t>
   </si>
   <si>
-    <t>Name of the location as used by humans</t>
+    <t>nom (LieuRealisationOffre) : Nom, exprimé sous la forme de texte, du lieu</t>
   </si>
   <si>
     <t>Name of the location as used by humans. Does not need to be unique.</t>
@@ -1036,7 +1063,7 @@
     <t>Location.description</t>
   </si>
   <si>
-    <t>Additional details about the location that could be displayed as further information to identify the location beyond its name</t>
+    <t>description (LieuRealisationOffre) : Description textuelle du lieu, indiquant comment l'atteindre</t>
   </si>
   <si>
     <t>Description of the Location, which helps in finding or referencing the place.</t>
@@ -1075,7 +1102,7 @@
     <t>Location.type</t>
   </si>
   <si>
-    <t>Type of function performed</t>
+    <t>fonctionLieu (LieuRealisationOffre) : La fonction correspond à la destination d'usage du lieu</t>
   </si>
   <si>
     <t>Indicates the type of function performed at the location.</t>
@@ -1097,7 +1124,7 @@
 </t>
   </si>
   <si>
-    <t>Contact details of the location</t>
+    <t>telecommunication (LieuRealisationOffre) : Adresse(s) de télécommunication du lieu</t>
   </si>
   <si>
     <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
@@ -1119,6 +1146,22 @@
     <t>2</t>
   </si>
   <si>
+    <t>Location.telecom.extension:ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t>ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canal (Telecommunication) : Code spécifiant le canal ou la manière dont s'établit la communication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
+  </si>
+  <si>
     <t>Location.telecom.extension:ror-telecom-usage</t>
   </si>
   <si>
@@ -1129,6 +1172,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">utilisation (Telecommunication) : Utilisation du canal de communication </t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
   </si>
   <si>
@@ -1142,20 +1188,10 @@
 </t>
   </si>
   <si>
+    <t>niveauConfidentialite (Telecommunication) : Niveau de restriction de l'accès aux attributs de la classe Télécommunication</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
-  </si>
-  <si>
-    <t>Location.telecom.extension:ror-telecom-communication-channel</t>
-  </si>
-  <si>
-    <t>ror-telecom-communication-channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
   </si>
   <si>
     <t>Location.telecom.system</t>
@@ -1186,7 +1222,7 @@
     <t>Location.telecom.value</t>
   </si>
   <si>
-    <t>The actual contact point details</t>
+    <t>adresseTelecom (Telecommunication) : Valeur de l'adresse de télécommunication dans le format induit par le canal de communica</t>
   </si>
   <si>
     <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
@@ -1272,7 +1308,7 @@
 </t>
   </si>
   <si>
-    <t>Physical location</t>
+    <t>adresse (LieuRealisationOffre) : Adresse géopostale du lieu</t>
   </si>
   <si>
     <t>Physical location.</t>
@@ -1390,6 +1426,212 @@
   </si>
   <si>
     <t>Location.address.line.extension</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension:careOf</t>
+  </si>
+  <si>
+    <t>careOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-careOf}
+</t>
+  </si>
+  <si>
+    <t>pointRemise (Adresse) : Lieu où le destinataire prend possession de son courrier</t>
+  </si>
+  <si>
+    <t>The name of the party who will take receipt at the specified address, and will take on responsibility for ensuring delivery to the target recipient.</t>
+  </si>
+  <si>
+    <t>ADXP[partType=CAR]</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension:additionalLocator</t>
+  </si>
+  <si>
+    <t>additionalLocator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-additionalLocator}
+</t>
+  </si>
+  <si>
+    <t>complementPointGeographique (Adresse) : Un complément de l'adresse au point géographique</t>
+  </si>
+  <si>
+    <t>This can be a unit designator, such as apartment number, suite number, or floor. There may be several unit designators in an address (e.g., "3rd floor, Appt. 342"). This can also be a designator pointing away from the location, rather than specifying a smaller location within some larger one (e.g., Dutch "t.o." means "opposite to" for house boats located across the street facing houses).</t>
+  </si>
+  <si>
+    <t>ADXP[partType=ADL]</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension:houseNumber</t>
+  </si>
+  <si>
+    <t>houseNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-houseNumber}
+</t>
+  </si>
+  <si>
+    <t>numeroVoie (Adresse) : Un numéro dans la voie</t>
+  </si>
+  <si>
+    <t>The number of a building, house or lot alongside the street. Also known as "primary street number". This does not number the street but rather the building.</t>
+  </si>
+  <si>
+    <t>ADXP[partType=BNR]</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension:buildingNumberSuffix</t>
+  </si>
+  <si>
+    <t>buildingNumberSuffix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-buildingNumberSuffix}
+</t>
+  </si>
+  <si>
+    <t>extension (Adresse) : Extension ou indice de répétition</t>
+  </si>
+  <si>
+    <t>Any alphabetic character, fraction or other text that may appear after the numeric portion of a building number.</t>
+  </si>
+  <si>
+    <t>ADXP[partType=BNS]</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension:streetNameType</t>
+  </si>
+  <si>
+    <t>streetNameType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-streetNameType}
+</t>
+  </si>
+  <si>
+    <t>typeVoie (Adresse) : Type de voie</t>
+  </si>
+  <si>
+    <t>The designation given to the street. (e.g. Street, Avenue, Crescent, etc.).</t>
+  </si>
+  <si>
+    <t>ADXP[partType=STTYP]</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension:streetNameType.id</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension.id</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension:streetNameType.extension</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension.extension</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension:streetNameType.url</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-streetNameType</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension:streetNameType.value[x]</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension:streetNameType.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J219-TypeVoie-ROR/FHIR/JDV-J219-TypeVoie-ROR</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension:streetNameBase</t>
+  </si>
+  <si>
+    <t>streetNameBase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-streetNameBase}
+</t>
+  </si>
+  <si>
+    <t>libelleVoie (Adresse) : Appellation qui est donnée à la voie par les municipalités</t>
+  </si>
+  <si>
+    <t>The base name of a roadway or artery recognized by a municipality (excluding street type and direction).</t>
+  </si>
+  <si>
+    <t>ADXP[partType=STB]</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension:streetNameHamlet</t>
+  </si>
+  <si>
+    <t>streetNameHamlet</t>
+  </si>
+  <si>
+    <t>lieuDit (Adresse) : Lieu qui porte un nom rappelant une particularité topographique ou historique</t>
+  </si>
+  <si>
+    <t>Location.address.line.extension:postalBox</t>
+  </si>
+  <si>
+    <t>postalBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-postBox}
+</t>
+  </si>
+  <si>
+    <t>mentionDistribution (Adresse) : Mentions particulières de distribution</t>
+  </si>
+  <si>
+    <t>A numbered box located in a post station.</t>
+  </si>
+  <si>
+    <t>ADXP[partType=POB]</t>
   </si>
   <si>
     <t>Location.address.line.extension:ror-organization-address-line-iso-21090-adxp-locality</t>
@@ -1402,186 +1644,10 @@
 </t>
   </si>
   <si>
+    <t>(Adresse)</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension:careOf</t>
-  </si>
-  <si>
-    <t>careOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-careOf}
-</t>
-  </si>
-  <si>
-    <t>The name of the party who will take receipt at the specified address, and will take on responsibility for ensuring delivery to the target recipient.</t>
-  </si>
-  <si>
-    <t>ADXP[partType=CAR]</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension:additionalLocator</t>
-  </si>
-  <si>
-    <t>additionalLocator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-additionalLocator}
-</t>
-  </si>
-  <si>
-    <t>This can be a unit designator, such as apartment number, suite number, or floor. There may be several unit designators in an address (e.g., "3rd floor, Appt. 342"). This can also be a designator pointing away from the location, rather than specifying a smaller location within some larger one (e.g., Dutch "t.o." means "opposite to" for house boats located across the street facing houses).</t>
-  </si>
-  <si>
-    <t>ADXP[partType=ADL]</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension:houseNumber</t>
-  </si>
-  <si>
-    <t>houseNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-houseNumber}
-</t>
-  </si>
-  <si>
-    <t>The number of a building, house or lot alongside the street. Also known as "primary street number". This does not number the street but rather the building.</t>
-  </si>
-  <si>
-    <t>ADXP[partType=BNR]</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension:buildingNumberSuffix</t>
-  </si>
-  <si>
-    <t>buildingNumberSuffix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-buildingNumberSuffix}
-</t>
-  </si>
-  <si>
-    <t>Any alphabetic character, fraction or other text that may appear after the numeric portion of a building number.</t>
-  </si>
-  <si>
-    <t>ADXP[partType=BNS]</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension:streetNameType</t>
-  </si>
-  <si>
-    <t>streetNameType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-streetNameType}
-</t>
-  </si>
-  <si>
-    <t>The designation given to the street. (e.g. Street, Avenue, Crescent, etc.).</t>
-  </si>
-  <si>
-    <t>ADXP[partType=STTYP]</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension:streetNameType.id</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension.id</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension:streetNameType.extension</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension.extension</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension:streetNameType.url</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-streetNameType</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension:streetNameType.value[x]</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension:streetNameType.value[x]:valueString</t>
-  </si>
-  <si>
-    <t>valueString</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J219-TypeVoie-ROR/FHIR/JDV-J219-TypeVoie-ROR</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension:streetNameBase</t>
-  </si>
-  <si>
-    <t>streetNameBase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-streetNameBase}
-</t>
-  </si>
-  <si>
-    <t>The base name of a roadway or artery recognized by a municipality (excluding street type and direction).</t>
-  </si>
-  <si>
-    <t>ADXP[partType=STB]</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension:postalBox</t>
-  </si>
-  <si>
-    <t>postalBox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-postBox}
-</t>
-  </si>
-  <si>
-    <t>postBox</t>
-  </si>
-  <si>
-    <t>A numbered box located in a post station.</t>
-  </si>
-  <si>
-    <t>ADXP[partType=POB]</t>
   </si>
   <si>
     <t>Location.address.line.value</t>
@@ -1603,7 +1669,7 @@
 </t>
   </si>
   <si>
-    <t>Name of city, town etc.</t>
+    <t>localité (Adresse) : Localité ou Libellé du bureau distributeur CEDEX</t>
   </si>
   <si>
     <t>The name of the city, town, suburb, village or other community or delivery center.</t>
@@ -1669,7 +1735,7 @@
 </t>
   </si>
   <si>
-    <t>Postal code for area</t>
+    <t>codePostal (Adresse) : Code Postal ou code postal spécifique CEDEX</t>
   </si>
   <si>
     <t>A postal code designating a region defined by the postal service.</t>
@@ -1751,7 +1817,7 @@
 </t>
   </si>
   <si>
-    <t>The absolute geographic location</t>
+    <t>coordonneeGeographique (LieuRealisationOffre) : Coordonnées géographiques du lieu</t>
   </si>
   <si>
     <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
@@ -1779,6 +1845,12 @@
 </t>
   </si>
   <si>
+    <t>systemeGeodesique : Une identification du système de référence fixant les règles de mesure des positions géographiques (CoordonneeGeographique)</t>
+  </si>
+  <si>
+    <t>The extension can be further extended to include unique geolocation identifiers, confidence, altitude, etc.</t>
+  </si>
+  <si>
     <t>Location.position.modifierExtension</t>
   </si>
   <si>
@@ -1803,7 +1875,7 @@
 </t>
   </si>
   <si>
-    <t>Longitude with WGS84 datum</t>
+    <t>longitude(CoordonneeGeographique) : Une mesure de la distance angulaire est ou ouest depuis le méridien de Greenwich jusqu'au méridien du point spécifique</t>
   </si>
   <si>
     <t>Longitude. The value domain and the interpretation are the same as for the text of the longitude element in KML (see notes below).</t>
@@ -1818,7 +1890,7 @@
     <t>Location.position.latitude</t>
   </si>
   <si>
-    <t>Latitude with WGS84 datum</t>
+    <t>latitude (CoordonneeGeographique) : Une mesure de la distance angulaire nord ou sud depuis l'équateur jusqu'au parallèle du spécifique</t>
   </si>
   <si>
     <t>Latitude. The value domain and the interpretation are the same as for the text of the latitude element in KML (see notes below).</t>
@@ -2268,7 +2340,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL112"/>
+  <dimension ref="A1:AL113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2302,7 +2374,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="90.5234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="86.125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
@@ -4293,10 +4365,10 @@
         <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4370,23 +4442,23 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -4398,13 +4470,13 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4478,13 +4550,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>72</v>
@@ -4506,13 +4578,13 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4586,13 +4658,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>72</v>
@@ -4614,13 +4686,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4694,13 +4766,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>72</v>
@@ -4722,13 +4794,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4802,23 +4874,23 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -4830,13 +4902,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4910,10 +4982,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4939,16 +5011,16 @@
         <v>103</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>106</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>72</v>
@@ -4997,7 +5069,7 @@
         <v>109</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -5020,10 +5092,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5046,17 +5118,17 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>72</v>
@@ -5093,7 +5165,7 @@
         <v>72</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
@@ -5103,7 +5175,7 @@
         <v>109</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -5118,21 +5190,21 @@
         <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>72</v>
@@ -5154,17 +5226,17 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>72</v>
@@ -5213,7 +5285,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -5228,18 +5300,18 @@
         <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5342,10 +5414,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5450,10 +5522,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5479,16 +5551,16 @@
         <v>164</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>72</v>
@@ -5516,10 +5588,10 @@
         <v>156</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>72</v>
@@ -5537,7 +5609,7 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -5552,7 +5624,7 @@
         <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>72</v>
@@ -5560,10 +5632,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5586,29 +5658,29 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>72</v>
@@ -5623,11 +5695,13 @@
         <v>72</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>72</v>
@@ -5645,7 +5719,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -5660,7 +5734,7 @@
         <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
@@ -5668,10 +5742,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5697,16 +5771,16 @@
         <v>124</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>72</v>
@@ -5719,7 +5793,7 @@
         <v>72</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>72</v>
@@ -5755,7 +5829,7 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -5770,7 +5844,7 @@
         <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -5778,10 +5852,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5807,13 +5881,13 @@
         <v>96</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5827,7 +5901,7 @@
         <v>72</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>72</v>
@@ -5863,7 +5937,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -5878,7 +5952,7 @@
         <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5886,10 +5960,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5912,16 +5986,16 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5971,7 +6045,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -5983,10 +6057,10 @@
         <v>92</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -5994,10 +6068,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6020,16 +6094,16 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6079,7 +6153,7 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -6091,10 +6165,10 @@
         <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
@@ -6102,13 +6176,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>72</v>
@@ -6130,17 +6204,17 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>72</v>
@@ -6189,7 +6263,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -6204,18 +6278,18 @@
         <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6318,10 +6392,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6426,10 +6500,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6455,16 +6529,16 @@
         <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>72</v>
@@ -6492,10 +6566,10 @@
         <v>156</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>72</v>
@@ -6513,7 +6587,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -6528,7 +6602,7 @@
         <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6536,10 +6610,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6562,29 +6636,29 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>72</v>
+        <v>304</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>72</v>
@@ -6599,11 +6673,13 @@
         <v>72</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>72</v>
@@ -6621,7 +6697,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -6636,7 +6712,7 @@
         <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6644,10 +6720,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6673,16 +6749,16 @@
         <v>124</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>72</v>
@@ -6695,7 +6771,7 @@
         <v>72</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>72</v>
@@ -6731,7 +6807,7 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -6746,7 +6822,7 @@
         <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6754,10 +6830,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6783,13 +6859,13 @@
         <v>96</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6803,7 +6879,7 @@
         <v>72</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>72</v>
@@ -6839,7 +6915,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -6854,7 +6930,7 @@
         <v>93</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6862,10 +6938,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6888,16 +6964,16 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6947,7 +7023,7 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -6959,10 +7035,10 @@
         <v>92</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -6970,10 +7046,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6996,16 +7072,16 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7055,7 +7131,7 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -7067,10 +7143,10 @@
         <v>92</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -7078,10 +7154,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7107,13 +7183,13 @@
         <v>164</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7142,10 +7218,10 @@
         <v>156</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>72</v>
@@ -7163,7 +7239,7 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -7178,18 +7254,18 @@
         <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7215,13 +7291,13 @@
         <v>136</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7250,10 +7326,10 @@
         <v>168</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>72</v>
@@ -7271,7 +7347,7 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -7289,15 +7365,15 @@
         <v>144</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7323,13 +7399,13 @@
         <v>96</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7379,7 +7455,7 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -7394,7 +7470,7 @@
         <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -7402,10 +7478,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7431,16 +7507,16 @@
         <v>96</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>72</v>
@@ -7489,7 +7565,7 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
@@ -7504,7 +7580,7 @@
         <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7512,10 +7588,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7541,16 +7617,16 @@
         <v>96</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>72</v>
@@ -7599,7 +7675,7 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -7614,7 +7690,7 @@
         <v>93</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7622,10 +7698,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7651,16 +7727,16 @@
         <v>164</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>72</v>
@@ -7688,10 +7764,10 @@
         <v>156</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>72</v>
@@ -7709,7 +7785,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -7724,18 +7800,18 @@
         <v>93</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7758,16 +7834,16 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7797,7 +7873,7 @@
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>72</v>
@@ -7815,7 +7891,7 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
@@ -7830,18 +7906,18 @@
         <v>93</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7864,13 +7940,13 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7921,7 +7997,7 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -7933,10 +8009,10 @@
         <v>92</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7944,10 +8020,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8050,10 +8126,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8061,7 +8137,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>74</v>
@@ -8156,20 +8232,20 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -8184,13 +8260,13 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>188</v>
+        <v>364</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8264,20 +8340,20 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8292,13 +8368,13 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>188</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8372,13 +8448,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>72</v>
@@ -8400,13 +8476,13 @@
         <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8480,10 +8556,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8509,13 +8585,13 @@
         <v>164</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8544,10 +8620,10 @@
         <v>156</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>72</v>
@@ -8565,7 +8641,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -8574,13 +8650,13 @@
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8588,10 +8664,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8617,16 +8693,16 @@
         <v>96</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>72</v>
@@ -8675,7 +8751,7 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
@@ -8690,7 +8766,7 @@
         <v>93</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
@@ -8698,10 +8774,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8727,16 +8803,16 @@
         <v>164</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>72</v>
@@ -8764,10 +8840,10 @@
         <v>156</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>72</v>
@@ -8785,7 +8861,7 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -8800,7 +8876,7 @@
         <v>93</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -8808,10 +8884,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8834,16 +8910,16 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8893,7 +8969,7 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
@@ -8916,10 +8992,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8942,16 +9018,16 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9001,7 +9077,7 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -9013,10 +9089,10 @@
         <v>92</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -9024,10 +9100,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9050,19 +9126,19 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>72</v>
@@ -9111,7 +9187,7 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
@@ -9126,7 +9202,7 @@
         <v>93</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -9134,10 +9210,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9240,10 +9316,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9348,10 +9424,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9377,16 +9453,16 @@
         <v>164</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>72</v>
@@ -9399,7 +9475,7 @@
         <v>72</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>72</v>
@@ -9414,10 +9490,10 @@
         <v>156</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>72</v>
@@ -9435,7 +9511,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -9450,7 +9526,7 @@
         <v>93</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -9458,10 +9534,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9487,13 +9563,13 @@
         <v>164</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9507,7 +9583,7 @@
         <v>72</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>72</v>
@@ -9522,10 +9598,10 @@
         <v>156</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>72</v>
@@ -9543,7 +9619,7 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
@@ -9558,7 +9634,7 @@
         <v>93</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
@@ -9566,10 +9642,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9595,16 +9671,16 @@
         <v>96</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>72</v>
@@ -9617,7 +9693,7 @@
         <v>72</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>72</v>
@@ -9653,7 +9729,7 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
@@ -9668,7 +9744,7 @@
         <v>93</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -9676,10 +9752,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9705,13 +9781,13 @@
         <v>96</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9725,7 +9801,7 @@
         <v>72</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>72</v>
@@ -9761,7 +9837,7 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
@@ -9776,7 +9852,7 @@
         <v>93</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -9784,10 +9860,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9890,10 +9966,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9998,13 +10074,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>72</v>
@@ -10026,13 +10102,13 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>188</v>
+        <v>456</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10098,7 +10174,7 @@
         <v>111</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>72</v>
+        <v>458</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -10106,13 +10182,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>72</v>
@@ -10134,13 +10210,13 @@
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10206,7 +10282,7 @@
         <v>111</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -10214,13 +10290,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>72</v>
@@ -10242,13 +10318,13 @@
         <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10314,7 +10390,7 @@
         <v>111</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -10322,13 +10398,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>72</v>
@@ -10350,13 +10426,13 @@
         <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10422,7 +10498,7 @@
         <v>111</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>
@@ -10430,13 +10506,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>72</v>
@@ -10458,13 +10534,13 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10530,7 +10606,7 @@
         <v>111</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10538,14 +10614,12 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>72</v>
       </c>
@@ -10566,13 +10640,13 @@
         <v>72</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>467</v>
+        <v>96</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>466</v>
+        <v>97</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>468</v>
+        <v>98</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10623,22 +10697,22 @@
         <v>72</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>469</v>
+        <v>100</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
@@ -10646,21 +10720,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>72</v>
@@ -10672,15 +10746,17 @@
         <v>72</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>72</v>
@@ -10717,34 +10793,34 @@
         <v>72</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>72</v>
@@ -10752,21 +10828,21 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>72</v>
@@ -10778,16 +10854,16 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>104</v>
+        <v>489</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>105</v>
+        <v>490</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>106</v>
+        <v>491</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10795,7 +10871,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>72</v>
+        <v>492</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>72</v>
@@ -10825,31 +10901,31 @@
         <v>72</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>110</v>
+        <v>493</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>94</v>
@@ -10860,10 +10936,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10871,7 +10947,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>80</v>
@@ -10886,24 +10962,22 @@
         <v>72</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
-        <v>479</v>
+        <v>72</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>72</v>
@@ -10933,31 +11007,29 @@
         <v>72</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="AC80" s="2"/>
       <c r="AD80" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>72</v>
+        <v>499</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>94</v>
@@ -10968,18 +11040,20 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="D81" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>80</v>
@@ -10997,10 +11071,10 @@
         <v>96</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11027,29 +11101,29 @@
         <v>72</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>72</v>
+        <v>503</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AC81" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AD81" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>486</v>
+        <v>72</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>73</v>
@@ -11072,20 +11146,20 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>80</v>
@@ -11100,13 +11174,13 @@
         <v>72</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>96</v>
+        <v>506</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11133,11 +11207,13 @@
         <v>72</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y82" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z82" t="s" s="2">
-        <v>490</v>
+        <v>72</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>72</v>
@@ -11155,22 +11231,22 @@
         <v>72</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>487</v>
+        <v>110</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>94</v>
+        <v>509</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>72</v>
@@ -11178,13 +11254,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>72</v>
@@ -11206,13 +11282,13 @@
         <v>72</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11278,7 +11354,7 @@
         <v>111</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -11286,13 +11362,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>72</v>
@@ -11314,13 +11390,13 @@
         <v>72</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11386,7 +11462,7 @@
         <v>111</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11394,12 +11470,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="D85" t="s" s="2">
         <v>72</v>
       </c>
@@ -11420,13 +11498,13 @@
         <v>72</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>96</v>
+        <v>521</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11450,7 +11528,7 @@
         <v>72</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="X85" t="s" s="2">
         <v>72</v>
@@ -11477,19 +11555,19 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>505</v>
+        <v>110</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>72</v>
@@ -11500,14 +11578,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>507</v>
+        <v>72</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -11523,20 +11601,18 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>72</v>
@@ -11549,7 +11625,7 @@
         <v>72</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>510</v>
+        <v>72</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>72</v>
@@ -11558,7 +11634,7 @@
         <v>72</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>72</v>
+        <v>526</v>
       </c>
       <c r="X86" t="s" s="2">
         <v>72</v>
@@ -11585,7 +11661,7 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
@@ -11594,13 +11670,13 @@
         <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>512</v>
+        <v>72</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -11608,14 +11684,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11637,13 +11713,13 @@
         <v>96</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>517</v>
+        <v>312</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11657,7 +11733,7 @@
         <v>72</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>72</v>
@@ -11693,7 +11769,7 @@
         <v>72</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
@@ -11708,7 +11784,7 @@
         <v>93</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -11716,14 +11792,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11745,13 +11821,13 @@
         <v>96</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>303</v>
+        <v>539</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11765,7 +11841,7 @@
         <v>72</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>72</v>
+        <v>540</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>72</v>
@@ -11801,7 +11877,7 @@
         <v>72</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>73</v>
@@ -11816,7 +11892,7 @@
         <v>93</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
@@ -11824,14 +11900,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11853,13 +11929,13 @@
         <v>96</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11873,7 +11949,7 @@
         <v>72</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>531</v>
+        <v>72</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>72</v>
@@ -11909,7 +11985,7 @@
         <v>72</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>73</v>
@@ -11924,7 +12000,7 @@
         <v>93</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
@@ -11932,14 +12008,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>72</v>
+        <v>550</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11961,13 +12037,13 @@
         <v>96</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>537</v>
+        <v>312</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -11981,7 +12057,7 @@
         <v>72</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>72</v>
+        <v>553</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>72</v>
@@ -12017,7 +12093,7 @@
         <v>72</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>73</v>
@@ -12032,7 +12108,7 @@
         <v>93</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -12040,10 +12116,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12066,20 +12142,18 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>273</v>
+        <v>96</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>72</v>
       </c>
@@ -12091,7 +12165,7 @@
         <v>72</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>544</v>
+        <v>72</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>72</v>
@@ -12127,7 +12201,7 @@
         <v>72</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>73</v>
@@ -12139,10 +12213,10 @@
         <v>92</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>398</v>
+        <v>561</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -12150,10 +12224,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12176,19 +12250,19 @@
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>72</v>
@@ -12201,7 +12275,7 @@
         <v>72</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>72</v>
+        <v>566</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>72</v>
@@ -12213,13 +12287,13 @@
         <v>72</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>550</v>
+        <v>72</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>551</v>
+        <v>72</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>72</v>
@@ -12237,7 +12311,7 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
@@ -12249,21 +12323,21 @@
         <v>92</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>552</v>
+        <v>410</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>336</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12283,20 +12357,22 @@
         <v>72</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>554</v>
+        <v>253</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O93" t="s" s="2">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>72</v>
@@ -12321,13 +12397,13 @@
         <v>72</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>72</v>
+        <v>572</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>72</v>
+        <v>573</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>72</v>
@@ -12345,7 +12421,7 @@
         <v>72</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>73</v>
@@ -12360,18 +12436,18 @@
         <v>93</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>72</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12394,16 +12470,18 @@
         <v>72</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>96</v>
+        <v>576</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>97</v>
+        <v>577</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>98</v>
+        <v>578</v>
       </c>
       <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>72</v>
       </c>
@@ -12451,7 +12529,7 @@
         <v>72</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>99</v>
+        <v>575</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>73</v>
@@ -12460,13 +12538,13 @@
         <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12474,21 +12552,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>72</v>
@@ -12500,17 +12578,15 @@
         <v>72</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>72</v>
@@ -12547,34 +12623,34 @@
         <v>72</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>72</v>
@@ -12582,23 +12658,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>72</v>
@@ -12610,15 +12684,17 @@
         <v>72</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>563</v>
+        <v>103</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>72</v>
@@ -12655,16 +12731,16 @@
         <v>72</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>110</v>
@@ -12682,7 +12758,7 @@
         <v>111</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>72</v>
@@ -12690,46 +12766,46 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="D97" t="s" s="2">
-        <v>565</v>
+        <v>72</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>103</v>
+        <v>585</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>72</v>
       </c>
@@ -12777,7 +12853,7 @@
         <v>72</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>568</v>
+        <v>110</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>73</v>
@@ -12800,44 +12876,46 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>72</v>
+        <v>589</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>570</v>
+        <v>103</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>72</v>
       </c>
@@ -12885,22 +12963,22 @@
         <v>72</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>574</v>
+        <v>94</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -12908,10 +12986,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12934,16 +13012,16 @@
         <v>72</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12993,7 +13071,7 @@
         <v>72</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -13008,7 +13086,7 @@
         <v>93</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -13016,10 +13094,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13027,7 +13105,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>80</v>
@@ -13042,16 +13120,16 @@
         <v>72</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13101,10 +13179,10 @@
         <v>72</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>80</v>
@@ -13116,7 +13194,7 @@
         <v>93</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -13124,10 +13202,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13147,23 +13225,21 @@
         <v>72</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>282</v>
+        <v>594</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>72</v>
       </c>
@@ -13211,7 +13287,7 @@
         <v>72</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>73</v>
@@ -13223,10 +13299,10 @@
         <v>92</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>72</v>
@@ -13234,10 +13310,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13257,22 +13333,22 @@
         <v>72</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>588</v>
+        <v>290</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>72</v>
@@ -13321,7 +13397,7 @@
         <v>72</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>73</v>
@@ -13333,10 +13409,10 @@
         <v>92</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>72</v>
@@ -13344,10 +13420,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13358,7 +13434,7 @@
         <v>73</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>72</v>
@@ -13370,18 +13446,20 @@
         <v>72</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>72</v>
       </c>
@@ -13429,22 +13507,22 @@
         <v>72</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>72</v>
@@ -13452,10 +13530,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13466,7 +13544,7 @@
         <v>73</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>72</v>
@@ -13478,15 +13556,17 @@
         <v>72</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>96</v>
+        <v>576</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>97</v>
+        <v>619</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>620</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>621</v>
+      </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>72</v>
@@ -13535,22 +13615,22 @@
         <v>72</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>99</v>
+        <v>618</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>100</v>
+        <v>622</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>72</v>
@@ -13558,21 +13638,21 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>72</v>
@@ -13584,17 +13664,15 @@
         <v>72</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>72</v>
@@ -13631,34 +13709,34 @@
         <v>72</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
@@ -13666,14 +13744,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>565</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13686,26 +13764,24 @@
         <v>72</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>566</v>
+        <v>104</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>567</v>
+        <v>105</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="O106" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>72</v>
       </c>
@@ -13741,19 +13817,19 @@
         <v>72</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>568</v>
+        <v>110</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>73</v>
@@ -13776,14 +13852,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>72</v>
+        <v>589</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13796,24 +13872,26 @@
         <v>72</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>72</v>
       </c>
@@ -13837,13 +13915,13 @@
         <v>72</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>605</v>
+        <v>72</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>606</v>
+        <v>72</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>72</v>
@@ -13861,7 +13939,7 @@
         <v>72</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>73</v>
@@ -13873,10 +13951,10 @@
         <v>92</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>598</v>
+        <v>94</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>72</v>
@@ -13884,10 +13962,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13898,7 +13976,7 @@
         <v>73</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>72</v>
@@ -13910,15 +13988,17 @@
         <v>72</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>608</v>
+        <v>164</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>72</v>
@@ -13943,13 +14023,13 @@
         <v>72</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>72</v>
+        <v>629</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>72</v>
+        <v>630</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>72</v>
@@ -13967,13 +14047,13 @@
         <v>72</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>92</v>
@@ -13982,7 +14062,7 @@
         <v>93</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>72</v>
@@ -13990,10 +14070,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14016,13 +14096,13 @@
         <v>72</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14073,7 +14153,7 @@
         <v>72</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>73</v>
@@ -14088,7 +14168,7 @@
         <v>93</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>72</v>
@@ -14096,10 +14176,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14122,13 +14202,13 @@
         <v>72</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>616</v>
+        <v>637</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>617</v>
+        <v>638</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14179,7 +14259,7 @@
         <v>72</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>73</v>
@@ -14194,7 +14274,7 @@
         <v>93</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>72</v>
@@ -14202,10 +14282,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>618</v>
+        <v>639</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>618</v>
+        <v>639</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14228,17 +14308,15 @@
         <v>72</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>96</v>
+        <v>636</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>72</v>
@@ -14287,7 +14365,7 @@
         <v>72</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>618</v>
+        <v>639</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>73</v>
@@ -14302,7 +14380,7 @@
         <v>93</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>100</v>
+        <v>622</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>72</v>
@@ -14310,10 +14388,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14324,7 +14402,7 @@
         <v>73</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>72</v>
@@ -14336,20 +14414,18 @@
         <v>72</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>622</v>
+        <v>96</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>625</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>72</v>
       </c>
@@ -14397,24 +14473,134 @@
         <v>72</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>626</v>
+        <v>100</v>
       </c>
       <c r="AL112" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AL113" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T09:15:18+00:00</t>
+    <t>2023-03-09T12:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="646">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T12:07:06+00:00</t>
+    <t>2023-03-09T16:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -752,7 +752,7 @@
     <t>idExterneSynchro</t>
   </si>
   <si>
-    <t>idExterneSynchro (Location) : Identifiant défini par le porteur d’offre pour la zone d’hébergement des lits</t>
+    <t>idExterneSynchro (LieuRealisationOffre) : Identifiant défini par le porteur d’offre pour la zone d’hébergement des lits</t>
   </si>
   <si>
     <t>Location.identifier:idExterneSynchro.id</t>
@@ -1632,22 +1632,6 @@
   </si>
   <si>
     <t>ADXP[partType=POB]</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension:ror-organization-address-line-iso-21090-adxp-locality</t>
-  </si>
-  <si>
-    <t>ror-organization-address-line-iso-21090-adxp-locality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-organization-address-line-iso-21090-adxp-locality}
-</t>
-  </si>
-  <si>
-    <t>(Adresse)</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR</t>
   </si>
   <si>
     <t>Location.address.line.value</t>
@@ -2340,7 +2324,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL113"/>
+  <dimension ref="A1:AL112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2349,9 +2333,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="79.5" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.2265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="49.828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="34.48828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2359,7 +2343,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="119.0078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -7928,7 +7912,7 @@
         <v>73</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>72</v>
@@ -11473,11 +11457,9 @@
         <v>519</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
         <v>72</v>
       </c>
@@ -11498,13 +11480,13 @@
         <v>72</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>521</v>
+        <v>96</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11528,7 +11510,7 @@
         <v>72</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>72</v>
+        <v>521</v>
       </c>
       <c r="X85" t="s" s="2">
         <v>72</v>
@@ -11555,19 +11537,19 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>110</v>
+        <v>522</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>72</v>
@@ -11578,14 +11560,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>72</v>
+        <v>524</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -11601,7 +11583,7 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>96</v>
@@ -11610,9 +11592,11 @@
         <v>525</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>72</v>
@@ -11625,7 +11609,7 @@
         <v>72</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>72</v>
+        <v>527</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>72</v>
@@ -11634,7 +11618,7 @@
         <v>72</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>526</v>
+        <v>72</v>
       </c>
       <c r="X86" t="s" s="2">
         <v>72</v>
@@ -11661,7 +11645,7 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
@@ -11670,13 +11654,13 @@
         <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>72</v>
+        <v>529</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -11684,14 +11668,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11713,13 +11697,13 @@
         <v>96</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>312</v>
+        <v>534</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11733,7 +11717,7 @@
         <v>72</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>72</v>
@@ -11769,7 +11753,7 @@
         <v>72</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
@@ -11784,7 +11768,7 @@
         <v>93</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -11792,14 +11776,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11821,13 +11805,13 @@
         <v>96</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>539</v>
+        <v>312</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11841,7 +11825,7 @@
         <v>72</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>540</v>
+        <v>72</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>72</v>
@@ -11877,7 +11861,7 @@
         <v>72</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>73</v>
@@ -11892,7 +11876,7 @@
         <v>93</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
@@ -11900,14 +11884,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11929,10 +11913,10 @@
         <v>96</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>312</v>
@@ -11949,7 +11933,7 @@
         <v>72</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>72</v>
+        <v>548</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>72</v>
@@ -11985,7 +11969,7 @@
         <v>72</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>73</v>
@@ -12000,7 +11984,7 @@
         <v>93</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
@@ -12008,14 +11992,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>550</v>
+        <v>72</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12037,13 +12021,13 @@
         <v>96</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>312</v>
+        <v>554</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12057,7 +12041,7 @@
         <v>72</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>553</v>
+        <v>72</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>72</v>
@@ -12093,7 +12077,7 @@
         <v>72</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>73</v>
@@ -12108,7 +12092,7 @@
         <v>93</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -12116,10 +12100,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12142,18 +12126,20 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>96</v>
+        <v>281</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>72</v>
       </c>
@@ -12165,7 +12151,7 @@
         <v>72</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>72</v>
+        <v>561</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>72</v>
@@ -12201,7 +12187,7 @@
         <v>72</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>73</v>
@@ -12213,10 +12199,10 @@
         <v>92</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>561</v>
+        <v>410</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -12224,10 +12210,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12250,19 +12236,19 @@
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>284</v>
+        <v>349</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>72</v>
@@ -12275,7 +12261,7 @@
         <v>72</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>566</v>
+        <v>72</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>72</v>
@@ -12287,13 +12273,13 @@
         <v>72</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>72</v>
+        <v>567</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>72</v>
+        <v>568</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>72</v>
@@ -12311,7 +12297,7 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
@@ -12323,21 +12309,21 @@
         <v>92</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>410</v>
+        <v>569</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>72</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12357,22 +12343,20 @@
         <v>72</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>253</v>
+        <v>571</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>72</v>
@@ -12397,13 +12381,13 @@
         <v>72</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>572</v>
+        <v>72</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>573</v>
+        <v>72</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>72</v>
@@ -12421,7 +12405,7 @@
         <v>72</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>73</v>
@@ -12436,18 +12420,18 @@
         <v>93</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>345</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12470,18 +12454,16 @@
         <v>72</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>576</v>
+        <v>96</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>577</v>
+        <v>97</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>578</v>
+        <v>98</v>
       </c>
       <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>579</v>
-      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>72</v>
       </c>
@@ -12529,7 +12511,7 @@
         <v>72</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>575</v>
+        <v>99</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>73</v>
@@ -12538,13 +12520,13 @@
         <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12552,21 +12534,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>72</v>
@@ -12578,15 +12560,17 @@
         <v>72</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>72</v>
@@ -12623,34 +12607,34 @@
         <v>72</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>72</v>
@@ -12658,21 +12642,23 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="D96" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>72</v>
@@ -12684,16 +12670,16 @@
         <v>72</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>103</v>
+        <v>580</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>104</v>
+        <v>581</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>105</v>
+        <v>573</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>106</v>
+        <v>582</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -12731,16 +12717,16 @@
         <v>72</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>110</v>
@@ -12769,43 +12755,43 @@
         <v>583</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="C97" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="D97" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>578</v>
-      </c>
       <c r="N97" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>72</v>
       </c>
@@ -12853,7 +12839,7 @@
         <v>72</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>110</v>
+        <v>587</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>73</v>
@@ -12883,26 +12869,26 @@
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>589</v>
+        <v>72</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>103</v>
+        <v>589</v>
       </c>
       <c r="L98" t="s" s="2">
         <v>590</v>
@@ -12911,11 +12897,9 @@
         <v>591</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>72</v>
       </c>
@@ -12963,22 +12947,22 @@
         <v>72</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>94</v>
+        <v>593</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -12986,10 +12970,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13012,7 +12996,7 @@
         <v>72</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>595</v>
@@ -13021,7 +13005,7 @@
         <v>596</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13071,7 +13055,7 @@
         <v>72</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -13086,7 +13070,7 @@
         <v>93</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -13094,10 +13078,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13105,7 +13089,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>80</v>
@@ -13120,16 +13104,16 @@
         <v>72</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13179,10 +13163,10 @@
         <v>72</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>80</v>
@@ -13194,7 +13178,7 @@
         <v>93</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -13202,10 +13186,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13225,21 +13209,23 @@
         <v>72</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>594</v>
+        <v>290</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N101" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="N101" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>72</v>
       </c>
@@ -13287,7 +13273,7 @@
         <v>72</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>73</v>
@@ -13299,10 +13285,10 @@
         <v>92</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>72</v>
@@ -13310,10 +13296,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13333,22 +13319,22 @@
         <v>72</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>290</v>
+        <v>607</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>72</v>
@@ -13397,7 +13383,7 @@
         <v>72</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>73</v>
@@ -13412,7 +13398,7 @@
         <v>295</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>72</v>
@@ -13420,10 +13406,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13434,7 +13420,7 @@
         <v>73</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>72</v>
@@ -13446,20 +13432,18 @@
         <v>72</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>612</v>
+        <v>571</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="O103" t="s" s="2">
         <v>616</v>
       </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>72</v>
       </c>
@@ -13507,19 +13491,19 @@
         <v>72</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>617</v>
@@ -13544,7 +13528,7 @@
         <v>73</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>72</v>
@@ -13556,17 +13540,15 @@
         <v>72</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>576</v>
+        <v>96</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>619</v>
+        <v>97</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>621</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>72</v>
@@ -13615,22 +13597,22 @@
         <v>72</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>618</v>
+        <v>99</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>622</v>
+        <v>100</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>72</v>
@@ -13638,21 +13620,21 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>72</v>
@@ -13664,15 +13646,17 @@
         <v>72</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>72</v>
@@ -13709,34 +13693,34 @@
         <v>72</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
@@ -13744,14 +13728,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>102</v>
+        <v>584</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13764,24 +13748,26 @@
         <v>72</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>104</v>
+        <v>585</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>105</v>
+        <v>586</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="O106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>72</v>
       </c>
@@ -13817,19 +13803,19 @@
         <v>72</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>110</v>
+        <v>587</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>73</v>
@@ -13852,14 +13838,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>589</v>
+        <v>72</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -13872,26 +13858,24 @@
         <v>72</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>72</v>
       </c>
@@ -13915,13 +13899,13 @@
         <v>72</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>72</v>
+        <v>624</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>72</v>
+        <v>625</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>72</v>
@@ -13939,7 +13923,7 @@
         <v>72</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>73</v>
@@ -13951,10 +13935,10 @@
         <v>92</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>94</v>
+        <v>617</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>72</v>
@@ -13976,7 +13960,7 @@
         <v>73</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>72</v>
@@ -13988,17 +13972,15 @@
         <v>72</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>164</v>
+        <v>627</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>72</v>
@@ -14023,13 +14005,13 @@
         <v>72</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>629</v>
+        <v>72</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>630</v>
+        <v>72</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>72</v>
@@ -14053,7 +14035,7 @@
         <v>73</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>92</v>
@@ -14062,7 +14044,7 @@
         <v>93</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>72</v>
@@ -14070,10 +14052,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14096,13 +14078,13 @@
         <v>72</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14153,7 +14135,7 @@
         <v>72</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>73</v>
@@ -14168,7 +14150,7 @@
         <v>93</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>72</v>
@@ -14176,10 +14158,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14202,13 +14184,13 @@
         <v>72</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14259,7 +14241,7 @@
         <v>72</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>73</v>
@@ -14274,7 +14256,7 @@
         <v>93</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>72</v>
@@ -14282,10 +14264,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14308,15 +14290,17 @@
         <v>72</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>636</v>
+        <v>96</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>639</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>72</v>
@@ -14365,7 +14349,7 @@
         <v>72</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>73</v>
@@ -14380,7 +14364,7 @@
         <v>93</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>622</v>
+        <v>100</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>72</v>
@@ -14388,10 +14372,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14402,7 +14386,7 @@
         <v>73</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>72</v>
@@ -14414,18 +14398,20 @@
         <v>72</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>96</v>
+        <v>641</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="O112" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="N112" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>72</v>
       </c>
@@ -14473,134 +14459,24 @@
         <v>72</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>100</v>
+        <v>645</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="P113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AL113" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4604" uniqueCount="718">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:26:30+00:00</t>
+    <t>2023-03-10T10:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -736,7 +736,7 @@
     <t>Organization label locations in registries, need to keep track of those.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:type}
+    <t xml:space="preserve">value:type.coding.code}
 </t>
   </si>
   <si>
@@ -819,14 +819,6 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_XXX-TypeIdentifiantRessourceOperationnelle/FHIR/TRE_XXX-TypeIdentifiantRessourceOperationnelle"/&gt;
-    &lt;code value="26"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
@@ -834,6 +826,199 @@
   </si>
   <si>
     <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Location.identifier:idExterneSynchro.type.id</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.id</t>
+  </si>
+  <si>
+    <t>Location.identifier:idExterneSynchro.type.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier:idExterneSynchro.type.coding</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Location.identifier:idExterneSynchro.type.coding.id</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>Location.identifier:idExterneSynchro.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier:idExterneSynchro.type.coding.system</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Location.identifier:idExterneSynchro.type.coding.version</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Location.identifier:idExterneSynchro.type.coding.code</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Location.identifier:idExterneSynchro.type.coding.display</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Location.identifier:idExterneSynchro.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Location.identifier:idExterneSynchro.type.text</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Location.identifier:idExterneSynchro.system</t>
@@ -967,12 +1152,40 @@
     <t>Location.identifier:idLocation.type</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_XXX-TypeIdentifiantRessourceOperationnelle/FHIR/TRE_XXX-TypeIdentifiantRessourceOperationnelle"/&gt;
-    &lt;code value="25"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>Location.identifier:idLocation.type.id</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.type.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.type.coding</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.type.coding.id</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.type.coding.system</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.type.coding.version</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.type.coding.code</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.type.coding.display</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Location.identifier:idLocation.type.text</t>
   </si>
   <si>
     <t>Location.identifier:idLocation.system</t>
@@ -994,9 +1207,6 @@
   </si>
   <si>
     <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Indicates whether the location is still in use.</t>
@@ -1970,10 +2180,6 @@
   </si>
   <si>
     <t>Location.hoursOfOperation.allDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>The Location is open all day</t>
@@ -2324,7 +2530,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL112"/>
+  <dimension ref="A1:AL134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2360,7 +2566,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="86.125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -5664,7 +5870,7 @@
         <v>72</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>258</v>
+        <v>72</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>72</v>
@@ -5682,28 +5888,28 @@
         <v>140</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -5726,10 +5932,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5749,23 +5955,19 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>72</v>
       </c>
@@ -5777,7 +5979,7 @@
         <v>72</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>72</v>
@@ -5813,7 +6015,7 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>269</v>
+        <v>99</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -5822,13 +6024,13 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -5836,21 +6038,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
@@ -5859,19 +6061,19 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>104</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5885,7 +6087,7 @@
         <v>72</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>72</v>
@@ -5909,34 +6111,34 @@
         <v>72</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>277</v>
+        <v>110</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>278</v>
+        <v>94</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -5944,10 +6146,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5958,7 +6160,7 @@
         <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>72</v>
@@ -5970,18 +6172,20 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>281</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>72</v>
       </c>
@@ -6029,22 +6233,22 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -6052,10 +6256,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6075,20 +6279,18 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>97</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>72</v>
@@ -6137,7 +6339,7 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -6146,13 +6348,13 @@
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
@@ -6160,23 +6362,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
@@ -6185,21 +6385,21 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>104</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>72</v>
       </c>
@@ -6235,19 +6435,19 @@
         <v>72</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -6259,21 +6459,21 @@
         <v>92</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>232</v>
+        <v>94</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>233</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6293,19 +6493,23 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>97</v>
+        <v>279</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>72</v>
       </c>
@@ -6353,7 +6557,7 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -6362,13 +6566,13 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -6376,21 +6580,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>72</v>
@@ -6399,19 +6603,19 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>105</v>
+        <v>288</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>106</v>
+        <v>289</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6449,34 +6653,34 @@
         <v>72</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>94</v>
+        <v>291</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -6484,10 +6688,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6495,7 +6699,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -6504,7 +6708,7 @@
         <v>72</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>81</v>
@@ -6513,16 +6717,16 @@
         <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>72</v>
@@ -6532,7 +6736,7 @@
         <v>72</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>72</v>
+        <v>298</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>72</v>
@@ -6547,13 +6751,13 @@
         <v>72</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>72</v>
@@ -6571,7 +6775,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -6586,7 +6790,7 @@
         <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6594,10 +6798,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6605,7 +6809,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6620,19 +6824,19 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>72</v>
@@ -6642,7 +6846,7 @@
         <v>72</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>304</v>
+        <v>72</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>72</v>
@@ -6657,13 +6861,13 @@
         <v>72</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>72</v>
@@ -6681,7 +6885,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -6696,7 +6900,7 @@
         <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6704,10 +6908,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6730,19 +6934,19 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>124</v>
+        <v>310</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>72</v>
@@ -6755,7 +6959,7 @@
         <v>72</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>72</v>
@@ -6791,7 +6995,7 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -6806,7 +7010,7 @@
         <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6814,10 +7018,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6843,15 +7047,17 @@
         <v>96</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>72</v>
       </c>
@@ -6863,7 +7069,7 @@
         <v>72</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>72</v>
@@ -6899,7 +7105,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -6914,7 +7120,7 @@
         <v>93</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6922,10 +7128,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6948,18 +7154,20 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>281</v>
+        <v>124</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>72</v>
       </c>
@@ -6971,7 +7179,7 @@
         <v>72</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>72</v>
+        <v>331</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>72</v>
@@ -7007,7 +7215,7 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -7019,10 +7227,10 @@
         <v>92</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -7030,10 +7238,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7056,16 +7264,16 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7079,7 +7287,7 @@
         <v>72</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>72</v>
@@ -7115,7 +7323,7 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -7127,10 +7335,10 @@
         <v>92</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -7138,10 +7346,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7158,22 +7366,22 @@
         <v>72</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>164</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7199,13 +7407,13 @@
         <v>72</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>313</v>
+        <v>72</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>314</v>
+        <v>72</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>72</v>
@@ -7223,7 +7431,7 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -7235,21 +7443,21 @@
         <v>92</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>316</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7272,16 +7480,16 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>136</v>
+        <v>353</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7307,13 +7515,13 @@
         <v>72</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>321</v>
+        <v>72</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>72</v>
@@ -7331,7 +7539,7 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -7343,23 +7551,25 @@
         <v>92</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>93</v>
+        <v>358</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>144</v>
+        <v>359</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>316</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>72</v>
       </c>
@@ -7380,18 +7590,18 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>72</v>
       </c>
@@ -7439,13 +7649,13 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>323</v>
+        <v>226</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>92</v>
@@ -7454,18 +7664,18 @@
         <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>72</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7476,7 +7686,7 @@
         <v>73</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>72</v>
@@ -7491,17 +7701,13 @@
         <v>96</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>329</v>
+        <v>97</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>72</v>
       </c>
@@ -7549,22 +7755,22 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>328</v>
+        <v>99</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7572,21 +7778,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
+        <v>240</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>72</v>
@@ -7595,23 +7801,21 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>334</v>
+        <v>104</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>335</v>
+        <v>105</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>72</v>
       </c>
@@ -7647,34 +7851,34 @@
         <v>72</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>333</v>
+        <v>110</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>337</v>
+        <v>94</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7682,10 +7886,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>242</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7702,7 +7906,7 @@
         <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>81</v>
@@ -7711,16 +7915,16 @@
         <v>164</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>339</v>
+        <v>243</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>340</v>
+        <v>244</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>341</v>
+        <v>245</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>342</v>
+        <v>246</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>72</v>
@@ -7748,10 +7952,10 @@
         <v>156</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>340</v>
+        <v>247</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>343</v>
+        <v>248</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>72</v>
@@ -7769,7 +7973,7 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -7784,18 +7988,18 @@
         <v>93</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>345</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7803,7 +8007,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -7821,15 +8025,17 @@
         <v>253</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>347</v>
+        <v>254</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>348</v>
+        <v>255</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>72</v>
       </c>
@@ -7853,11 +8059,13 @@
         <v>72</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>72</v>
@@ -7875,13 +8083,13 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>346</v>
+        <v>260</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>92</v>
@@ -7890,18 +8098,18 @@
         <v>93</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>345</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7912,7 +8120,7 @@
         <v>73</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>72</v>
@@ -7924,13 +8132,13 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>354</v>
+        <v>97</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>355</v>
+        <v>98</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7981,22 +8189,22 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>352</v>
+        <v>99</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>356</v>
+        <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>357</v>
+        <v>100</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -8004,21 +8212,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>72</v>
@@ -8030,15 +8238,17 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>72</v>
@@ -8075,34 +8285,34 @@
         <v>72</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -8110,10 +8320,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>359</v>
+        <v>266</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8121,7 +8331,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>360</v>
+        <v>73</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>74</v>
@@ -8133,19 +8343,23 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>72</v>
       </c>
@@ -8181,19 +8395,19 @@
         <v>72</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>73</v>
@@ -8205,10 +8419,10 @@
         <v>92</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>72</v>
@@ -8216,20 +8430,18 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -8244,13 +8456,13 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>363</v>
+        <v>96</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>364</v>
+        <v>97</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>365</v>
+        <v>98</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8301,22 +8513,22 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -8324,23 +8536,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>72</v>
@@ -8352,15 +8562,17 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>368</v>
+        <v>103</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>369</v>
+        <v>104</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>72</v>
@@ -8397,16 +8609,16 @@
         <v>72</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>110</v>
@@ -8424,7 +8636,7 @@
         <v>111</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -8432,20 +8644,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8457,19 +8667,23 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>373</v>
+        <v>124</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>374</v>
+        <v>279</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>72</v>
       </c>
@@ -8517,22 +8731,22 @@
         <v>72</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>110</v>
+        <v>283</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -8540,10 +8754,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>376</v>
+        <v>286</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8566,16 +8780,16 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>377</v>
+        <v>287</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>378</v>
+        <v>288</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8601,13 +8815,13 @@
         <v>72</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>379</v>
+        <v>72</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>380</v>
+        <v>72</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>72</v>
@@ -8625,7 +8839,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>381</v>
+        <v>290</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -8634,13 +8848,13 @@
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>382</v>
+        <v>92</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>383</v>
+        <v>291</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8648,10 +8862,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>384</v>
+        <v>293</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8674,19 +8888,19 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>385</v>
+        <v>294</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>386</v>
+        <v>295</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>387</v>
+        <v>296</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>388</v>
+        <v>297</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>72</v>
@@ -8696,7 +8910,7 @@
         <v>72</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>72</v>
@@ -8735,7 +8949,7 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>389</v>
+        <v>299</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
@@ -8750,7 +8964,7 @@
         <v>93</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
@@ -8758,10 +8972,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>391</v>
+        <v>302</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8778,25 +8992,25 @@
         <v>72</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
+        <v>303</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>393</v>
+        <v>304</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>394</v>
+        <v>296</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>395</v>
+        <v>305</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>72</v>
@@ -8821,13 +9035,13 @@
         <v>72</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>396</v>
+        <v>72</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>397</v>
+        <v>72</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>72</v>
@@ -8845,7 +9059,7 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -8860,7 +9074,7 @@
         <v>93</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>399</v>
+        <v>307</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -8868,10 +9082,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>400</v>
+        <v>309</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8894,18 +9108,20 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>401</v>
+        <v>310</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>402</v>
+        <v>311</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>403</v>
+        <v>312</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>72</v>
       </c>
@@ -8953,7 +9169,7 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
@@ -8968,7 +9184,7 @@
         <v>93</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -8976,10 +9192,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>406</v>
+        <v>318</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9002,18 +9218,20 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>407</v>
+        <v>319</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>408</v>
+        <v>320</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>72</v>
       </c>
@@ -9061,7 +9279,7 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>409</v>
+        <v>323</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -9073,10 +9291,10 @@
         <v>92</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -9084,10 +9302,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>411</v>
+        <v>326</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9107,22 +9325,22 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>412</v>
+        <v>124</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>413</v>
+        <v>327</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>414</v>
+        <v>328</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>415</v>
+        <v>329</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>416</v>
+        <v>330</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>72</v>
@@ -9135,7 +9353,7 @@
         <v>72</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>72</v>
+        <v>331</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>72</v>
@@ -9171,7 +9389,7 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>411</v>
+        <v>332</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
@@ -9186,7 +9404,7 @@
         <v>93</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -9194,10 +9412,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>418</v>
+        <v>335</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9217,18 +9435,20 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>97</v>
+        <v>336</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>72</v>
@@ -9241,7 +9461,7 @@
         <v>72</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>72</v>
@@ -9277,7 +9497,7 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>99</v>
+        <v>340</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
@@ -9286,13 +9506,13 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>100</v>
+        <v>341</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -9300,21 +9520,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>419</v>
+        <v>343</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>72</v>
@@ -9323,19 +9543,19 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>103</v>
+        <v>344</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>104</v>
+        <v>345</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>105</v>
+        <v>346</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>106</v>
+        <v>347</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9373,34 +9593,34 @@
         <v>72</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>110</v>
+        <v>348</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>111</v>
+        <v>349</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>94</v>
+        <v>350</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -9408,10 +9628,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9428,26 +9648,24 @@
         <v>72</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>164</v>
+        <v>353</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>421</v>
+        <v>354</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>72</v>
       </c>
@@ -9459,7 +9677,7 @@
         <v>72</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>425</v>
+        <v>72</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>72</v>
@@ -9471,13 +9689,13 @@
         <v>72</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>426</v>
+        <v>72</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>427</v>
+        <v>72</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>72</v>
@@ -9495,7 +9713,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>428</v>
+        <v>357</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -9507,10 +9725,10 @@
         <v>92</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>93</v>
+        <v>358</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -9518,10 +9736,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9538,7 +9756,7 @@
         <v>72</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>81</v>
@@ -9547,13 +9765,13 @@
         <v>164</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>430</v>
+        <v>384</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>432</v>
+        <v>296</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9567,7 +9785,7 @@
         <v>72</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>433</v>
+        <v>72</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>72</v>
@@ -9582,10 +9800,10 @@
         <v>156</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>72</v>
@@ -9603,7 +9821,7 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
@@ -9618,18 +9836,18 @@
         <v>93</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>72</v>
+        <v>389</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9652,20 +9870,18 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>72</v>
       </c>
@@ -9677,7 +9893,7 @@
         <v>72</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>442</v>
+        <v>72</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>72</v>
@@ -9689,13 +9905,13 @@
         <v>72</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>72</v>
+        <v>394</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>72</v>
+        <v>395</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>72</v>
@@ -9713,7 +9929,7 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
@@ -9728,18 +9944,18 @@
         <v>93</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>444</v>
+        <v>144</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>72</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9750,7 +9966,7 @@
         <v>73</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>72</v>
@@ -9765,13 +9981,13 @@
         <v>96</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>312</v>
+        <v>399</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9785,7 +10001,7 @@
         <v>72</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>448</v>
+        <v>72</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>72</v>
@@ -9821,13 +10037,13 @@
         <v>72</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>92</v>
@@ -9836,7 +10052,7 @@
         <v>93</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -9844,10 +10060,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9858,7 +10074,7 @@
         <v>73</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>72</v>
@@ -9873,13 +10089,17 @@
         <v>96</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>97</v>
+        <v>402</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>72</v>
       </c>
@@ -9927,22 +10147,22 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>99</v>
+        <v>401</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -9950,21 +10170,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>72</v>
@@ -9973,21 +10193,23 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>104</v>
+        <v>407</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>105</v>
+        <v>408</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>72</v>
       </c>
@@ -10023,34 +10245,34 @@
         <v>72</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>110</v>
+        <v>406</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>94</v>
+        <v>410</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -10058,14 +10280,12 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
         <v>72</v>
       </c>
@@ -10083,19 +10303,23 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>455</v>
+        <v>164</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>72</v>
       </c>
@@ -10119,13 +10343,13 @@
         <v>72</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>72</v>
+        <v>413</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>72</v>
+        <v>416</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>72</v>
@@ -10143,37 +10367,35 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>110</v>
+        <v>411</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>72</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
         <v>72</v>
       </c>
@@ -10191,18 +10413,20 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>461</v>
+        <v>253</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>72</v>
@@ -10227,13 +10451,11 @@
         <v>72</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>72</v>
+        <v>423</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>72</v>
@@ -10251,7 +10473,7 @@
         <v>72</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>110</v>
+        <v>419</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
@@ -10263,25 +10485,23 @@
         <v>92</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>72</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>72</v>
       </c>
@@ -10290,7 +10510,7 @@
         <v>73</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>72</v>
@@ -10302,13 +10522,13 @@
         <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10359,7 +10579,7 @@
         <v>72</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>110</v>
+        <v>425</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -10371,10 +10591,10 @@
         <v>92</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>111</v>
+        <v>429</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
@@ -10382,14 +10602,12 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>72</v>
       </c>
@@ -10410,13 +10628,13 @@
         <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>473</v>
+        <v>96</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>474</v>
+        <v>97</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>475</v>
+        <v>98</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10467,22 +10685,22 @@
         <v>72</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>476</v>
+        <v>100</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>
@@ -10490,23 +10708,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>73</v>
+        <v>433</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>72</v>
@@ -10518,13 +10734,13 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>479</v>
+        <v>103</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>480</v>
+        <v>188</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>481</v>
+        <v>189</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10563,16 +10779,16 @@
         <v>72</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>110</v>
@@ -10590,7 +10806,7 @@
         <v>111</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>482</v>
+        <v>72</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10598,18 +10814,20 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>80</v>
@@ -10624,13 +10842,13 @@
         <v>72</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>96</v>
+        <v>436</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>98</v>
+        <v>438</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10681,22 +10899,22 @@
         <v>72</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
@@ -10704,21 +10922,23 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="D78" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>72</v>
@@ -10730,17 +10950,15 @@
         <v>72</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>104</v>
+        <v>442</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>72</v>
@@ -10777,16 +10995,16 @@
         <v>72</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>110</v>
@@ -10804,7 +11022,7 @@
         <v>111</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>72</v>
@@ -10812,12 +11030,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>72</v>
       </c>
@@ -10838,24 +11058,22 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>124</v>
+        <v>446</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>492</v>
+        <v>72</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>72</v>
@@ -10897,22 +11115,22 @@
         <v>72</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>493</v>
+        <v>110</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>72</v>
@@ -10920,10 +11138,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10943,18 +11161,20 @@
         <v>72</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>496</v>
+        <v>450</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>72</v>
@@ -10979,29 +11199,31 @@
         <v>72</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>72</v>
+        <v>452</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>72</v>
+        <v>453</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AC80" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AD80" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>499</v>
+        <v>72</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>73</v>
@@ -11010,13 +11232,13 @@
         <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>92</v>
+        <v>455</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>94</v>
+        <v>456</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>72</v>
@@ -11024,14 +11246,12 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
         <v>72</v>
       </c>
@@ -11049,19 +11269,23 @@
         <v>72</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>72</v>
       </c>
@@ -11085,11 +11309,13 @@
         <v>72</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y81" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z81" t="s" s="2">
-        <v>503</v>
+        <v>72</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>72</v>
@@ -11107,7 +11333,7 @@
         <v>72</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>73</v>
@@ -11122,7 +11348,7 @@
         <v>93</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>94</v>
+        <v>463</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>72</v>
@@ -11130,14 +11356,12 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
         <v>72</v>
       </c>
@@ -11152,22 +11376,26 @@
         <v>72</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>506</v>
+        <v>164</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>72</v>
       </c>
@@ -11191,13 +11419,13 @@
         <v>72</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>72</v>
+        <v>469</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>72</v>
+        <v>470</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>72</v>
@@ -11215,22 +11443,22 @@
         <v>72</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>110</v>
+        <v>471</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>509</v>
+        <v>472</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>72</v>
@@ -11238,14 +11466,12 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>510</v>
+        <v>473</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>72</v>
       </c>
@@ -11263,18 +11489,20 @@
         <v>72</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>512</v>
+        <v>475</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>72</v>
@@ -11323,22 +11551,22 @@
         <v>72</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>110</v>
+        <v>478</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>509</v>
+        <v>100</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -11346,14 +11574,12 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>72</v>
       </c>
@@ -11371,18 +11597,20 @@
         <v>72</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>515</v>
+        <v>344</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>72</v>
@@ -11431,22 +11659,22 @@
         <v>72</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>110</v>
+        <v>482</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>111</v>
+        <v>349</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11454,10 +11682,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11480,16 +11708,20 @@
         <v>72</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>96</v>
+        <v>485</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>72</v>
       </c>
@@ -11510,7 +11742,7 @@
         <v>72</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>521</v>
+        <v>72</v>
       </c>
       <c r="X85" t="s" s="2">
         <v>72</v>
@@ -11537,7 +11769,7 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>522</v>
+        <v>484</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
@@ -11546,13 +11778,13 @@
         <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>72</v>
+        <v>490</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>72</v>
@@ -11560,14 +11792,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>524</v>
+        <v>72</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -11583,20 +11815,18 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>525</v>
+        <v>97</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>72</v>
@@ -11609,7 +11839,7 @@
         <v>72</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>527</v>
+        <v>72</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>72</v>
@@ -11645,7 +11875,7 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>528</v>
+        <v>99</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
@@ -11654,13 +11884,13 @@
         <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>529</v>
+        <v>100</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -11668,21 +11898,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>530</v>
+        <v>492</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>530</v>
+        <v>492</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>531</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>72</v>
@@ -11691,19 +11921,19 @@
         <v>72</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>532</v>
+        <v>104</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>533</v>
+        <v>105</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>534</v>
+        <v>106</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11717,7 +11947,7 @@
         <v>72</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>535</v>
+        <v>72</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>72</v>
@@ -11741,34 +11971,34 @@
         <v>72</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>536</v>
+        <v>110</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>537</v>
+        <v>94</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -11776,14 +12006,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>539</v>
+        <v>72</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11796,24 +12026,26 @@
         <v>72</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>540</v>
+        <v>494</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>541</v>
+        <v>495</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>72</v>
       </c>
@@ -11825,7 +12057,7 @@
         <v>72</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>72</v>
+        <v>498</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>72</v>
@@ -11837,13 +12069,13 @@
         <v>72</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>72</v>
+        <v>499</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>72</v>
@@ -11861,7 +12093,7 @@
         <v>72</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>73</v>
@@ -11876,7 +12108,7 @@
         <v>93</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>543</v>
+        <v>472</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
@@ -11884,14 +12116,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>544</v>
+        <v>502</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>544</v>
+        <v>502</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>545</v>
+        <v>72</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11910,16 +12142,16 @@
         <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>547</v>
+        <v>504</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11933,7 +12165,7 @@
         <v>72</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>548</v>
+        <v>506</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>72</v>
@@ -11945,13 +12177,13 @@
         <v>72</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>72</v>
+        <v>507</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>72</v>
+        <v>508</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>72</v>
@@ -11969,7 +12201,7 @@
         <v>72</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>73</v>
@@ -11984,7 +12216,7 @@
         <v>93</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>550</v>
+        <v>472</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
@@ -11992,10 +12224,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>551</v>
+        <v>510</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>551</v>
+        <v>510</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12021,15 +12253,17 @@
         <v>96</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>72</v>
       </c>
@@ -12041,7 +12275,7 @@
         <v>72</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>72</v>
+        <v>515</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>72</v>
@@ -12077,7 +12311,7 @@
         <v>72</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>555</v>
+        <v>516</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>73</v>
@@ -12092,7 +12326,7 @@
         <v>93</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>556</v>
+        <v>517</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -12100,10 +12334,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12114,7 +12348,7 @@
         <v>73</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>72</v>
@@ -12126,20 +12360,18 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>72</v>
       </c>
@@ -12151,7 +12383,7 @@
         <v>72</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>72</v>
@@ -12187,22 +12419,22 @@
         <v>72</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>410</v>
+        <v>523</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -12210,10 +12442,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12233,23 +12465,19 @@
         <v>72</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>564</v>
+        <v>97</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>72</v>
       </c>
@@ -12273,13 +12501,13 @@
         <v>72</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>567</v>
+        <v>72</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>568</v>
+        <v>72</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>72</v>
@@ -12297,7 +12525,7 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>563</v>
+        <v>99</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
@@ -12306,35 +12534,35 @@
         <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>569</v>
+        <v>100</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>345</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>72</v>
@@ -12346,18 +12574,18 @@
         <v>72</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>571</v>
+        <v>103</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>572</v>
+        <v>104</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>72</v>
       </c>
@@ -12393,34 +12621,34 @@
         <v>72</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>570</v>
+        <v>110</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>575</v>
+        <v>94</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -12428,12 +12656,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>576</v>
+        <v>526</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="D94" t="s" s="2">
         <v>72</v>
       </c>
@@ -12454,13 +12684,13 @@
         <v>72</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>96</v>
+        <v>528</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>97</v>
+        <v>529</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>98</v>
+        <v>530</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12511,22 +12741,22 @@
         <v>72</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>100</v>
+        <v>531</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12534,21 +12764,23 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="D95" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>72</v>
@@ -12560,17 +12792,15 @@
         <v>72</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>103</v>
+        <v>534</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>104</v>
+        <v>535</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>72</v>
@@ -12607,16 +12837,16 @@
         <v>72</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>110</v>
@@ -12634,7 +12864,7 @@
         <v>111</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>94</v>
+        <v>537</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>72</v>
@@ -12642,13 +12872,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>577</v>
+        <v>525</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>72</v>
@@ -12670,17 +12900,15 @@
         <v>72</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>72</v>
@@ -12744,7 +12972,7 @@
         <v>111</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>94</v>
+        <v>543</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>72</v>
@@ -12752,46 +12980,44 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>583</v>
+        <v>544</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="D97" t="s" s="2">
-        <v>584</v>
+        <v>72</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>103</v>
+        <v>546</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>585</v>
+        <v>547</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>72</v>
       </c>
@@ -12839,7 +13065,7 @@
         <v>72</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>587</v>
+        <v>110</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>73</v>
@@ -12854,7 +13080,7 @@
         <v>111</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>94</v>
+        <v>549</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>72</v>
@@ -12862,18 +13088,20 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="D98" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>80</v>
@@ -12888,17 +13116,15 @@
         <v>72</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>72</v>
@@ -12947,22 +13173,22 @@
         <v>72</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>588</v>
+        <v>110</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -12970,10 +13196,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>594</v>
+        <v>557</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12981,7 +13207,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>80</v>
@@ -12996,17 +13222,15 @@
         <v>72</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>589</v>
+        <v>96</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>595</v>
+        <v>97</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>72</v>
@@ -13055,22 +13279,22 @@
         <v>72</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>594</v>
+        <v>99</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>593</v>
+        <v>100</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -13078,21 +13302,21 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>597</v>
+        <v>558</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>597</v>
+        <v>559</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>72</v>
@@ -13104,16 +13328,16 @@
         <v>72</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>589</v>
+        <v>103</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>598</v>
+        <v>104</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>599</v>
+        <v>105</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>592</v>
+        <v>106</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13151,34 +13375,34 @@
         <v>72</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>597</v>
+        <v>110</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>593</v>
+        <v>94</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -13186,10 +13410,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13197,7 +13421,7 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>80</v>
@@ -13209,29 +13433,27 @@
         <v>72</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>290</v>
+        <v>124</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>601</v>
+        <v>562</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>604</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>72</v>
+        <v>565</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>72</v>
@@ -13273,22 +13495,22 @@
         <v>72</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>605</v>
+        <v>94</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>72</v>
@@ -13296,10 +13518,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>606</v>
+        <v>567</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>606</v>
+        <v>568</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13322,20 +13544,16 @@
         <v>72</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>607</v>
+        <v>96</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>608</v>
+        <v>569</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>611</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>72</v>
       </c>
@@ -13371,19 +13589,17 @@
         <v>72</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="AC102" s="2"/>
       <c r="AD102" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>72</v>
+        <v>572</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>73</v>
@@ -13395,10 +13611,10 @@
         <v>92</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>612</v>
+        <v>94</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>72</v>
@@ -13406,21 +13622,23 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>575</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>72</v>
@@ -13432,17 +13650,15 @@
         <v>72</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>571</v>
+        <v>96</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>614</v>
+        <v>569</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>616</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>72</v>
@@ -13467,13 +13683,11 @@
         <v>72</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>72</v>
+        <v>576</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>72</v>
@@ -13491,13 +13705,13 @@
         <v>72</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>92</v>
@@ -13506,7 +13720,7 @@
         <v>93</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>617</v>
+        <v>94</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>72</v>
@@ -13514,12 +13728,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>618</v>
+        <v>577</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="C104" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="D104" t="s" s="2">
         <v>72</v>
       </c>
@@ -13540,13 +13756,13 @@
         <v>72</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>96</v>
+        <v>579</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>97</v>
+        <v>580</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>98</v>
+        <v>581</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13597,22 +13813,22 @@
         <v>72</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>100</v>
+        <v>582</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>72</v>
@@ -13620,21 +13836,23 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C105" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="D105" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>72</v>
@@ -13646,17 +13864,15 @@
         <v>72</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>103</v>
+        <v>579</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>104</v>
+        <v>585</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>72</v>
@@ -13693,16 +13909,16 @@
         <v>72</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>110</v>
@@ -13720,7 +13936,7 @@
         <v>111</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>94</v>
+        <v>582</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
@@ -13728,46 +13944,44 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>620</v>
+        <v>586</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>587</v>
+      </c>
       <c r="D106" t="s" s="2">
-        <v>584</v>
+        <v>72</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>103</v>
+        <v>588</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>72</v>
       </c>
@@ -13815,7 +14029,7 @@
         <v>72</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>587</v>
+        <v>110</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>73</v>
@@ -13830,7 +14044,7 @@
         <v>111</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>94</v>
+        <v>591</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>72</v>
@@ -13838,10 +14052,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13852,7 +14066,7 @@
         <v>73</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>72</v>
@@ -13864,17 +14078,15 @@
         <v>72</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>72</v>
@@ -13896,16 +14108,16 @@
         <v>72</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>72</v>
+        <v>594</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>624</v>
+        <v>72</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>625</v>
+        <v>72</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>72</v>
@@ -13923,22 +14135,22 @@
         <v>72</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>617</v>
+        <v>72</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>72</v>
@@ -13946,14 +14158,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>72</v>
+        <v>597</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -13969,18 +14181,20 @@
         <v>72</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>627</v>
+        <v>96</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>628</v>
+        <v>598</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>72</v>
@@ -13993,7 +14207,7 @@
         <v>72</v>
       </c>
       <c r="T108" t="s" s="2">
-        <v>72</v>
+        <v>600</v>
       </c>
       <c r="U108" t="s" s="2">
         <v>72</v>
@@ -14029,7 +14243,7 @@
         <v>72</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>73</v>
@@ -14044,7 +14258,7 @@
         <v>93</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>72</v>
@@ -14052,14 +14266,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>72</v>
+        <v>604</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14075,18 +14289,20 @@
         <v>72</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>631</v>
+        <v>96</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>632</v>
+        <v>605</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>72</v>
@@ -14099,7 +14315,7 @@
         <v>72</v>
       </c>
       <c r="T109" t="s" s="2">
-        <v>72</v>
+        <v>608</v>
       </c>
       <c r="U109" t="s" s="2">
         <v>72</v>
@@ -14135,7 +14351,7 @@
         <v>72</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>73</v>
@@ -14150,7 +14366,7 @@
         <v>93</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>72</v>
@@ -14158,14 +14374,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>72</v>
+        <v>612</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14181,18 +14397,20 @@
         <v>72</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>631</v>
+        <v>96</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>635</v>
+        <v>613</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>72</v>
@@ -14241,7 +14459,7 @@
         <v>72</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>73</v>
@@ -14256,7 +14474,7 @@
         <v>93</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>72</v>
@@ -14264,14 +14482,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>72</v>
+        <v>618</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -14287,19 +14505,19 @@
         <v>72</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14313,7 +14531,7 @@
         <v>72</v>
       </c>
       <c r="T111" t="s" s="2">
-        <v>72</v>
+        <v>621</v>
       </c>
       <c r="U111" t="s" s="2">
         <v>72</v>
@@ -14349,7 +14567,7 @@
         <v>72</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>73</v>
@@ -14364,7 +14582,7 @@
         <v>93</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>100</v>
+        <v>623</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>72</v>
@@ -14372,10 +14590,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14386,7 +14604,7 @@
         <v>73</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>72</v>
@@ -14395,23 +14613,21 @@
         <v>72</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>641</v>
+        <v>96</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>644</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>72</v>
       </c>
@@ -14459,24 +14675,2406 @@
         <v>72</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="AL112" t="s" s="2">
+      <c r="M115" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O122" s="2"/>
+      <c r="P122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="P123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="P124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="O125" s="2"/>
+      <c r="P125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O127" s="2"/>
+      <c r="P127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="P128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O129" s="2"/>
+      <c r="P129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q130" s="2"/>
+      <c r="R130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q131" s="2"/>
+      <c r="R131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q132" s="2"/>
+      <c r="R132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O133" s="2"/>
+      <c r="P133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q133" s="2"/>
+      <c r="R133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="P134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q134" s="2"/>
+      <c r="R134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="AL134" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4604" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4640" uniqueCount="721">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:03:34+00:00</t>
+    <t>2023-03-10T14:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1268,6 +1268,15 @@
   <si>
     <t>Over time locations and organizations go through many changes and can be known by different names.
 For searching knowing previous names that the location was known by can be very useful.</t>
+  </si>
+  <si>
+    <t>nomExterneSynchro (LieuRealisationOffre) : Nom de la zone d’hébergement des lits</t>
+  </si>
+  <si>
+    <t>Location.alias:nomExterneSynchro</t>
+  </si>
+  <si>
+    <t>nomExterneSynchro</t>
   </si>
   <si>
     <t>Location.description</t>
@@ -2530,7 +2539,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL134"/>
+  <dimension ref="A1:AL135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2567,7 +2576,7 @@
     <col min="26" max="26" width="86.125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="78.25390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -10135,16 +10144,16 @@
         <v>72</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>72</v>
+        <v>406</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>401</v>
@@ -10170,12 +10179,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>72</v>
       </c>
@@ -10193,22 +10204,22 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>296</v>
+        <v>404</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>72</v>
@@ -10257,13 +10268,13 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>92</v>
@@ -10272,7 +10283,7 @@
         <v>93</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -10280,10 +10291,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10306,19 +10317,19 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O72" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>72</v>
@@ -10343,13 +10354,13 @@
         <v>72</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>413</v>
+        <v>72</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>416</v>
+        <v>72</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>72</v>
@@ -10367,7 +10378,7 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
@@ -10382,18 +10393,18 @@
         <v>93</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>418</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10416,18 +10427,20 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>72</v>
       </c>
@@ -10453,9 +10466,11 @@
       <c r="X73" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y73" s="2"/>
+      <c r="Y73" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="Z73" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>72</v>
@@ -10473,13 +10488,13 @@
         <v>72</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>92</v>
@@ -10488,18 +10503,18 @@
         <v>93</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10510,7 +10525,7 @@
         <v>73</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>72</v>
@@ -10519,18 +10534,20 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>426</v>
+        <v>253</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>72</v>
@@ -10555,13 +10572,11 @@
         <v>72</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>72</v>
+        <v>426</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>72</v>
@@ -10579,7 +10594,7 @@
         <v>72</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -10591,21 +10606,21 @@
         <v>92</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>429</v>
+        <v>93</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>72</v>
+        <v>421</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10616,7 +10631,7 @@
         <v>73</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>72</v>
@@ -10628,13 +10643,13 @@
         <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>96</v>
+        <v>429</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>98</v>
+        <v>431</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10685,22 +10700,22 @@
         <v>72</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>99</v>
+        <v>428</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>72</v>
+        <v>432</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>
@@ -10708,10 +10723,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10719,10 +10734,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>433</v>
+        <v>73</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>72</v>
@@ -10734,13 +10749,13 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10779,34 +10794,34 @@
         <v>72</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10814,23 +10829,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C77" t="s" s="2">
         <v>435</v>
       </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>436</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>72</v>
@@ -10842,13 +10855,13 @@
         <v>72</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>436</v>
+        <v>103</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>437</v>
+        <v>188</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>438</v>
+        <v>189</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10887,16 +10900,16 @@
         <v>72</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>110</v>
@@ -10922,20 +10935,20 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>80</v>
@@ -10950,13 +10963,13 @@
         <v>72</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11030,20 +11043,20 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>80</v>
@@ -11058,13 +11071,13 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11138,18 +11151,20 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="D80" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>80</v>
@@ -11161,10 +11176,10 @@
         <v>72</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>164</v>
+        <v>449</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>450</v>
@@ -11172,9 +11187,7 @@
       <c r="M80" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="N80" t="s" s="2">
-        <v>296</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>72</v>
@@ -11199,13 +11212,13 @@
         <v>72</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>452</v>
+        <v>72</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>453</v>
+        <v>72</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>72</v>
@@ -11223,22 +11236,22 @@
         <v>72</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>454</v>
+        <v>110</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>455</v>
+        <v>92</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>456</v>
+        <v>72</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>72</v>
@@ -11246,10 +11259,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11257,7 +11270,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>80</v>
@@ -11272,20 +11285,18 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>72</v>
       </c>
@@ -11309,13 +11320,13 @@
         <v>72</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>72</v>
+        <v>455</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>72</v>
+        <v>456</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>72</v>
@@ -11333,7 +11344,7 @@
         <v>72</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>73</v>
@@ -11342,13 +11353,13 @@
         <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>92</v>
+        <v>458</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>72</v>
@@ -11356,10 +11367,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11367,7 +11378,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>80</v>
@@ -11376,25 +11387,25 @@
         <v>72</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>72</v>
@@ -11419,13 +11430,13 @@
         <v>72</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>469</v>
+        <v>72</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>470</v>
+        <v>72</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>72</v>
@@ -11443,7 +11454,7 @@
         <v>72</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>73</v>
@@ -11458,7 +11469,7 @@
         <v>93</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>72</v>
@@ -11466,10 +11477,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11486,24 +11497,26 @@
         <v>72</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>474</v>
+        <v>164</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>72</v>
       </c>
@@ -11527,13 +11540,13 @@
         <v>72</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>72</v>
+        <v>472</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>72</v>
+        <v>473</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>72</v>
@@ -11551,7 +11564,7 @@
         <v>72</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>73</v>
@@ -11566,7 +11579,7 @@
         <v>93</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>100</v>
+        <v>475</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -11574,10 +11587,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11600,16 +11613,16 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>344</v>
+        <v>477</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11659,7 +11672,7 @@
         <v>72</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>73</v>
@@ -11671,10 +11684,10 @@
         <v>92</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>483</v>
+        <v>100</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11682,10 +11695,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11705,23 +11718,21 @@
         <v>72</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>485</v>
+        <v>344</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>72</v>
       </c>
@@ -11769,7 +11780,7 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
@@ -11781,10 +11792,10 @@
         <v>92</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>72</v>
@@ -11792,10 +11803,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11818,16 +11829,20 @@
         <v>72</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>96</v>
+        <v>488</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>97</v>
+        <v>489</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>72</v>
       </c>
@@ -11875,7 +11890,7 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>99</v>
+        <v>487</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
@@ -11884,13 +11899,13 @@
         <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>100</v>
+        <v>493</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -11898,21 +11913,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>72</v>
@@ -11924,17 +11939,15 @@
         <v>72</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>72</v>
@@ -11971,34 +11984,34 @@
         <v>72</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -12006,46 +12019,44 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>494</v>
+        <v>104</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>495</v>
+        <v>105</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>72</v>
       </c>
@@ -12057,7 +12068,7 @@
         <v>72</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>498</v>
+        <v>72</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>72</v>
@@ -12069,46 +12080,46 @@
         <v>72</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>499</v>
+        <v>72</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>500</v>
+        <v>72</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>501</v>
+        <v>110</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>472</v>
+        <v>94</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
@@ -12116,10 +12127,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12136,7 +12147,7 @@
         <v>72</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>81</v>
@@ -12145,15 +12156,17 @@
         <v>164</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>72</v>
       </c>
@@ -12165,7 +12178,7 @@
         <v>72</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>72</v>
@@ -12180,10 +12193,10 @@
         <v>156</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>72</v>
@@ -12201,7 +12214,7 @@
         <v>72</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>73</v>
@@ -12216,7 +12229,7 @@
         <v>93</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
@@ -12224,10 +12237,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12250,20 +12263,18 @@
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>72</v>
       </c>
@@ -12275,7 +12286,7 @@
         <v>72</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>72</v>
@@ -12287,13 +12298,13 @@
         <v>72</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>72</v>
+        <v>510</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>72</v>
+        <v>511</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>72</v>
@@ -12311,7 +12322,7 @@
         <v>72</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>73</v>
@@ -12326,7 +12337,7 @@
         <v>93</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -12334,10 +12345,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12348,7 +12359,7 @@
         <v>73</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>72</v>
@@ -12363,15 +12374,17 @@
         <v>96</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>72</v>
       </c>
@@ -12383,7 +12396,7 @@
         <v>72</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>72</v>
@@ -12419,13 +12432,13 @@
         <v>72</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>92</v>
@@ -12434,7 +12447,7 @@
         <v>93</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -12442,10 +12455,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12456,7 +12469,7 @@
         <v>73</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>72</v>
@@ -12465,18 +12478,20 @@
         <v>72</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>72</v>
@@ -12489,7 +12504,7 @@
         <v>72</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>72</v>
+        <v>524</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>72</v>
@@ -12525,22 +12540,22 @@
         <v>72</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>99</v>
+        <v>525</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>100</v>
+        <v>526</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -12548,21 +12563,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>72</v>
@@ -12574,17 +12589,15 @@
         <v>72</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>72</v>
@@ -12621,34 +12634,34 @@
         <v>72</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -12656,23 +12669,21 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>72</v>
@@ -12684,15 +12695,17 @@
         <v>72</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>528</v>
+        <v>103</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>529</v>
+        <v>104</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>72</v>
@@ -12729,16 +12742,16 @@
         <v>72</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>110</v>
@@ -12756,7 +12769,7 @@
         <v>111</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>531</v>
+        <v>94</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12764,13 +12777,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>72</v>
@@ -12792,13 +12805,13 @@
         <v>72</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12864,7 +12877,7 @@
         <v>111</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>72</v>
@@ -12872,13 +12885,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>72</v>
@@ -12900,13 +12913,13 @@
         <v>72</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12972,7 +12985,7 @@
         <v>111</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>72</v>
@@ -12980,13 +12993,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>72</v>
@@ -13008,13 +13021,13 @@
         <v>72</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13080,7 +13093,7 @@
         <v>111</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>72</v>
@@ -13088,13 +13101,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>72</v>
@@ -13116,13 +13129,13 @@
         <v>72</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13188,7 +13201,7 @@
         <v>111</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -13196,12 +13209,14 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="D99" t="s" s="2">
         <v>72</v>
       </c>
@@ -13222,13 +13237,13 @@
         <v>72</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>96</v>
+        <v>555</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>97</v>
+        <v>556</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>98</v>
+        <v>557</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13279,22 +13294,22 @@
         <v>72</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>100</v>
+        <v>558</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -13302,21 +13317,21 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>72</v>
@@ -13328,17 +13343,15 @@
         <v>72</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>72</v>
@@ -13375,34 +13388,34 @@
         <v>72</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -13410,21 +13423,21 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>72</v>
@@ -13436,16 +13449,16 @@
         <v>72</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>562</v>
+        <v>104</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>563</v>
+        <v>105</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>564</v>
+        <v>106</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13453,7 +13466,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>565</v>
+        <v>72</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>72</v>
@@ -13483,31 +13496,31 @@
         <v>72</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>566</v>
+        <v>110</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>94</v>
@@ -13518,10 +13531,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13529,7 +13542,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>80</v>
@@ -13544,22 +13557,24 @@
         <v>72</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>72</v>
+        <v>568</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>72</v>
@@ -13589,29 +13604,31 @@
         <v>72</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AC102" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AD102" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>572</v>
+        <v>72</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>94</v>
@@ -13622,20 +13639,18 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>80</v>
@@ -13653,10 +13668,10 @@
         <v>96</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13683,29 +13698,29 @@
         <v>72</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y103" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z103" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AC103" s="2"/>
+      <c r="AD103" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AF103" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>73</v>
@@ -13731,7 +13746,7 @@
         <v>577</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>578</v>
@@ -13741,7 +13756,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>80</v>
@@ -13756,13 +13771,13 @@
         <v>72</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>579</v>
+        <v>96</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13789,13 +13804,11 @@
         <v>72</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y104" s="2"/>
       <c r="Z104" t="s" s="2">
-        <v>72</v>
+        <v>579</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>72</v>
@@ -13813,22 +13826,22 @@
         <v>72</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>110</v>
+        <v>576</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>582</v>
+        <v>94</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>72</v>
@@ -13836,13 +13849,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>72</v>
@@ -13864,13 +13877,13 @@
         <v>72</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13936,7 +13949,7 @@
         <v>111</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
@@ -13947,7 +13960,7 @@
         <v>586</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>587</v>
@@ -13972,13 +13985,13 @@
         <v>72</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="L106" t="s" s="2">
-        <v>589</v>
-      </c>
       <c r="M106" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14044,7 +14057,7 @@
         <v>111</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>72</v>
@@ -14052,12 +14065,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="D107" t="s" s="2">
         <v>72</v>
       </c>
@@ -14078,10 +14093,10 @@
         <v>72</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>96</v>
+        <v>591</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M107" t="s" s="2">
         <v>593</v>
@@ -14108,49 +14123,49 @@
         <v>72</v>
       </c>
       <c r="W107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK107" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>72</v>
@@ -14158,14 +14173,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>597</v>
+        <v>72</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14181,20 +14196,18 @@
         <v>72</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>72</v>
@@ -14207,7 +14220,7 @@
         <v>72</v>
       </c>
       <c r="T108" t="s" s="2">
-        <v>600</v>
+        <v>72</v>
       </c>
       <c r="U108" t="s" s="2">
         <v>72</v>
@@ -14216,7 +14229,7 @@
         <v>72</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>72</v>
+        <v>597</v>
       </c>
       <c r="X108" t="s" s="2">
         <v>72</v>
@@ -14243,7 +14256,7 @@
         <v>72</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>73</v>
@@ -14252,13 +14265,13 @@
         <v>80</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>602</v>
+        <v>72</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>72</v>
@@ -14266,14 +14279,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14295,13 +14308,13 @@
         <v>96</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>607</v>
+        <v>296</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -14315,7 +14328,7 @@
         <v>72</v>
       </c>
       <c r="T109" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="U109" t="s" s="2">
         <v>72</v>
@@ -14351,7 +14364,7 @@
         <v>72</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>73</v>
@@ -14366,7 +14379,7 @@
         <v>93</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>72</v>
@@ -14374,14 +14387,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14403,13 +14416,13 @@
         <v>96</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>296</v>
+        <v>610</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14423,7 +14436,7 @@
         <v>72</v>
       </c>
       <c r="T110" t="s" s="2">
-        <v>72</v>
+        <v>611</v>
       </c>
       <c r="U110" t="s" s="2">
         <v>72</v>
@@ -14459,7 +14472,7 @@
         <v>72</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>73</v>
@@ -14474,7 +14487,7 @@
         <v>93</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>72</v>
@@ -14482,14 +14495,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -14511,10 +14524,10 @@
         <v>96</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>296</v>
@@ -14531,7 +14544,7 @@
         <v>72</v>
       </c>
       <c r="T111" t="s" s="2">
-        <v>621</v>
+        <v>72</v>
       </c>
       <c r="U111" t="s" s="2">
         <v>72</v>
@@ -14567,7 +14580,7 @@
         <v>72</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>73</v>
@@ -14582,7 +14595,7 @@
         <v>93</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>72</v>
@@ -14590,14 +14603,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>72</v>
+        <v>621</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -14619,13 +14632,13 @@
         <v>96</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>627</v>
+        <v>296</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14639,7 +14652,7 @@
         <v>72</v>
       </c>
       <c r="T112" t="s" s="2">
-        <v>72</v>
+        <v>624</v>
       </c>
       <c r="U112" t="s" s="2">
         <v>72</v>
@@ -14675,7 +14688,7 @@
         <v>72</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>73</v>
@@ -14690,7 +14703,7 @@
         <v>93</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>72</v>
@@ -14698,10 +14711,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14724,20 +14737,18 @@
         <v>81</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>344</v>
+        <v>96</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>633</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>72</v>
       </c>
@@ -14749,7 +14760,7 @@
         <v>72</v>
       </c>
       <c r="T113" t="s" s="2">
-        <v>634</v>
+        <v>72</v>
       </c>
       <c r="U113" t="s" s="2">
         <v>72</v>
@@ -14785,7 +14796,7 @@
         <v>72</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>73</v>
@@ -14797,10 +14808,10 @@
         <v>92</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>483</v>
+        <v>632</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>72</v>
@@ -14808,10 +14819,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14834,19 +14845,19 @@
         <v>81</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>422</v>
+        <v>347</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>72</v>
@@ -14859,7 +14870,7 @@
         <v>72</v>
       </c>
       <c r="T114" t="s" s="2">
-        <v>72</v>
+        <v>637</v>
       </c>
       <c r="U114" t="s" s="2">
         <v>72</v>
@@ -14871,13 +14882,13 @@
         <v>72</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>640</v>
+        <v>72</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>641</v>
+        <v>72</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>72</v>
@@ -14895,7 +14906,7 @@
         <v>72</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>73</v>
@@ -14907,21 +14918,21 @@
         <v>92</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>642</v>
+        <v>486</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>418</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14941,20 +14952,22 @@
         <v>72</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>644</v>
+        <v>253</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N115" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O115" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>72</v>
@@ -14979,13 +14992,13 @@
         <v>72</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>72</v>
+        <v>643</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>72</v>
+        <v>644</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>72</v>
@@ -15003,7 +15016,7 @@
         <v>72</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>73</v>
@@ -15018,18 +15031,18 @@
         <v>93</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>72</v>
+        <v>421</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15052,16 +15065,18 @@
         <v>72</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>96</v>
+        <v>647</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>97</v>
+        <v>648</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>98</v>
+        <v>649</v>
       </c>
       <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="P116" t="s" s="2">
         <v>72</v>
       </c>
@@ -15109,7 +15124,7 @@
         <v>72</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>99</v>
+        <v>646</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>73</v>
@@ -15118,13 +15133,13 @@
         <v>80</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>100</v>
+        <v>651</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>72</v>
@@ -15132,21 +15147,21 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>72</v>
@@ -15158,17 +15173,15 @@
         <v>72</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>72</v>
@@ -15205,34 +15218,34 @@
         <v>72</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC117" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD117" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>72</v>
@@ -15240,23 +15253,21 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>652</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>72</v>
@@ -15268,16 +15279,16 @@
         <v>72</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>653</v>
+        <v>103</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>654</v>
+        <v>104</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>646</v>
+        <v>105</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>655</v>
+        <v>106</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -15315,16 +15326,16 @@
         <v>72</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>110</v>
@@ -15350,46 +15361,46 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>655</v>
+      </c>
       <c r="D119" t="s" s="2">
-        <v>657</v>
+        <v>72</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>103</v>
+        <v>656</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="N119" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="M119" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>72</v>
       </c>
@@ -15437,7 +15448,7 @@
         <v>72</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>660</v>
+        <v>110</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>73</v>
@@ -15460,44 +15471,46 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>72</v>
+        <v>660</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="L120" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>664</v>
-      </c>
       <c r="N120" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="O120" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>72</v>
       </c>
@@ -15545,22 +15558,22 @@
         <v>72</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>666</v>
+        <v>94</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>72</v>
@@ -15568,10 +15581,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15594,16 +15607,16 @@
         <v>72</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -15653,7 +15666,7 @@
         <v>72</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -15668,7 +15681,7 @@
         <v>93</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>72</v>
@@ -15687,7 +15700,7 @@
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>80</v>
@@ -15702,7 +15715,7 @@
         <v>72</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>671</v>
@@ -15711,7 +15724,7 @@
         <v>672</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -15764,7 +15777,7 @@
         <v>670</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>80</v>
@@ -15776,7 +15789,7 @@
         <v>93</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>72</v>
@@ -15807,10 +15820,10 @@
         <v>72</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>353</v>
+        <v>665</v>
       </c>
       <c r="L123" t="s" s="2">
         <v>674</v>
@@ -15819,11 +15832,9 @@
         <v>675</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>677</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>72</v>
       </c>
@@ -15883,10 +15894,10 @@
         <v>92</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>358</v>
+        <v>93</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>72</v>
@@ -15894,10 +15905,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15917,22 +15928,22 @@
         <v>72</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="O124" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>72</v>
@@ -15981,7 +15992,7 @@
         <v>72</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>73</v>
@@ -15996,7 +16007,7 @@
         <v>358</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>72</v>
@@ -16004,10 +16015,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16018,7 +16029,7 @@
         <v>73</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>72</v>
@@ -16030,18 +16041,20 @@
         <v>72</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>644</v>
+        <v>683</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="O125" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="M125" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>72</v>
       </c>
@@ -16089,22 +16102,22 @@
         <v>72</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>93</v>
+        <v>358</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>72</v>
@@ -16112,10 +16125,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16126,7 +16139,7 @@
         <v>73</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>72</v>
@@ -16138,15 +16151,17 @@
         <v>72</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>96</v>
+        <v>647</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>97</v>
+        <v>690</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N126" s="2"/>
+        <v>691</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>692</v>
+      </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>72</v>
@@ -16195,22 +16210,22 @@
         <v>72</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>99</v>
+        <v>689</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>100</v>
+        <v>693</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>72</v>
@@ -16218,21 +16233,21 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>72</v>
@@ -16244,17 +16259,15 @@
         <v>72</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>72</v>
@@ -16291,34 +16304,34 @@
         <v>72</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC127" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD127" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>72</v>
@@ -16326,14 +16339,14 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>657</v>
+        <v>102</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -16346,26 +16359,24 @@
         <v>72</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>658</v>
+        <v>104</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>659</v>
+        <v>105</v>
       </c>
       <c r="N128" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="O128" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>72</v>
       </c>
@@ -16401,19 +16412,19 @@
         <v>72</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC128" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD128" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>660</v>
+        <v>110</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>73</v>
@@ -16436,14 +16447,14 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>72</v>
+        <v>660</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -16456,24 +16467,26 @@
         <v>72</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>695</v>
+        <v>661</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>696</v>
+        <v>662</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O129" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P129" t="s" s="2">
         <v>72</v>
       </c>
@@ -16497,13 +16510,13 @@
         <v>72</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>697</v>
+        <v>72</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>698</v>
+        <v>72</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>72</v>
@@ -16521,7 +16534,7 @@
         <v>72</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>694</v>
+        <v>663</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>73</v>
@@ -16533,10 +16546,10 @@
         <v>92</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>690</v>
+        <v>94</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>72</v>
@@ -16544,10 +16557,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16558,7 +16571,7 @@
         <v>73</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>72</v>
@@ -16570,15 +16583,17 @@
         <v>72</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>699</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>72</v>
@@ -16603,13 +16618,13 @@
         <v>72</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>72</v>
+        <v>700</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>72</v>
+        <v>701</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>72</v>
@@ -16627,13 +16642,13 @@
         <v>72</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>92</v>
@@ -16642,7 +16657,7 @@
         <v>93</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>72</v>
@@ -16676,13 +16691,13 @@
         <v>72</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -16748,7 +16763,7 @@
         <v>93</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>72</v>
@@ -16756,10 +16771,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16782,7 +16797,7 @@
         <v>72</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>707</v>
@@ -16839,7 +16854,7 @@
         <v>72</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>73</v>
@@ -16854,7 +16869,7 @@
         <v>93</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>72</v>
@@ -16888,7 +16903,7 @@
         <v>72</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>96</v>
+        <v>706</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>710</v>
@@ -16896,9 +16911,7 @@
       <c r="M133" t="s" s="2">
         <v>711</v>
       </c>
-      <c r="N133" t="s" s="2">
-        <v>296</v>
-      </c>
+      <c r="N133" s="2"/>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>72</v>
@@ -16962,7 +16975,7 @@
         <v>93</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>100</v>
+        <v>693</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>72</v>
@@ -16984,7 +16997,7 @@
         <v>73</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>72</v>
@@ -16996,20 +17009,18 @@
         <v>72</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="M134" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="M134" t="s" s="2">
-        <v>715</v>
-      </c>
       <c r="N134" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>716</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>72</v>
       </c>
@@ -17063,18 +17074,128 @@
         <v>73</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ134" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="O135" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="P135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q135" s="2"/>
+      <c r="R135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AK134" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="AL134" t="s" s="2">
+      <c r="AK135" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="AL135" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:03:40+00:00</t>
+    <t>2023-03-10T16:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:06:49+00:00</t>
+    <t>2023-03-13T07:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T07:40:36+00:00</t>
+    <t>2023-03-13T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T11:14:34+00:00</t>
+    <t>2023-03-13T13:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T13:58:57+00:00</t>
+    <t>2023-03-13T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:14:07+00:00</t>
+    <t>2023-03-13T14:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:59:56+00:00</t>
+    <t>2023-03-13T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T15:28:19+00:00</t>
+    <t>2023-03-14T07:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T07:46:37+00:00</t>
+    <t>2023-03-15T15:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:36:42+00:00</t>
+    <t>2023-03-15T15:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:41:30+00:00</t>
+    <t>2023-03-21T15:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4640" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4674" uniqueCount="726">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T15:32:49+00:00</t>
+    <t>2023-03-27T14:30:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -599,6 +599,9 @@
     <t>Location.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -704,6 +707,22 @@
     <t>Extension créée dans le cadre du ROR qui indique une série d’enregistrements indiquant la quantité de lit (ou de place) de l'entité pour un statut et une temporalité donnés.</t>
   </si>
   <si>
+    <t>Location.extension:ror-meta-creation-date</t>
+  </si>
+  <si>
+    <t>ror-meta-creation-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-meta-creation-date}
+</t>
+  </si>
+  <si>
+    <t>dateCreation (Metadonnee)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régionnal) présente dans les métadonnées.</t>
+  </si>
+  <si>
     <t>Location.modifierExtension</t>
   </si>
   <si>
@@ -1360,9 +1379,6 @@
   </si>
   <si>
     <t>Location.telecom.extension</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Location.telecom.extension:ror-telecom-communication-channel</t>
@@ -2539,7 +2555,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL135"/>
+  <dimension ref="A1:AL136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3358,7 +3374,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>80</v>
@@ -4438,7 +4454,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -4456,10 +4472,10 @@
         <v>103</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4510,7 +4526,7 @@
         <v>109</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -4533,13 +4549,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>72</v>
@@ -4561,13 +4577,13 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4618,7 +4634,7 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
@@ -4641,13 +4657,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>72</v>
@@ -4669,13 +4685,13 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4726,7 +4742,7 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -4749,13 +4765,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>72</v>
@@ -4777,13 +4793,13 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4834,7 +4850,7 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -4857,13 +4873,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>72</v>
@@ -4885,13 +4901,13 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4942,7 +4958,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -4965,13 +4981,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>72</v>
@@ -4993,13 +5009,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5050,7 +5066,7 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -5073,13 +5089,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>72</v>
@@ -5101,13 +5117,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5158,7 +5174,7 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -5181,46 +5197,44 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>72</v>
       </c>
@@ -5256,19 +5270,19 @@
         <v>72</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -5283,7 +5297,7 @@
         <v>111</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -5291,14 +5305,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5311,13 +5325,13 @@
         <v>72</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>228</v>
@@ -5325,7 +5339,9 @@
       <c r="M26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="N26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>230</v>
       </c>
@@ -5364,9 +5380,11 @@
         <v>72</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>72</v>
       </c>
@@ -5374,7 +5392,7 @@
         <v>109</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -5386,25 +5404,23 @@
         <v>92</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>232</v>
+        <v>94</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>233</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>72</v>
       </c>
@@ -5413,7 +5429,7 @@
         <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>72</v>
@@ -5425,17 +5441,17 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>72</v>
@@ -5472,19 +5488,17 @@
         <v>72</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -5499,20 +5513,22 @@
         <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>72</v>
       </c>
@@ -5530,19 +5546,21 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>72</v>
       </c>
@@ -5590,44 +5608,44 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>72</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -5639,17 +5657,15 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>72</v>
@@ -5686,34 +5702,34 @@
         <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -5721,46 +5737,44 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>72</v>
       </c>
@@ -5784,46 +5798,46 @@
         <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>72</v>
@@ -5831,10 +5845,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5842,7 +5856,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
@@ -5851,25 +5865,25 @@
         <v>72</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>72</v>
@@ -5894,13 +5908,13 @@
         <v>72</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>72</v>
@@ -5918,7 +5932,7 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -5933,7 +5947,7 @@
         <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>72</v>
@@ -5941,10 +5955,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5952,7 +5966,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5964,19 +5978,23 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>72</v>
       </c>
@@ -6000,13 +6018,13 @@
         <v>72</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>72</v>
@@ -6024,7 +6042,7 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -6033,13 +6051,13 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>72</v>
@@ -6047,21 +6065,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
@@ -6073,17 +6091,15 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>72</v>
@@ -6120,34 +6136,34 @@
         <v>72</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -6155,14 +6171,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6178,23 +6194,21 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>72</v>
       </c>
@@ -6230,19 +6244,19 @@
         <v>72</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -6254,10 +6268,10 @@
         <v>92</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -6265,10 +6279,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6279,7 +6293,7 @@
         <v>73</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>72</v>
@@ -6288,19 +6302,23 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>97</v>
+        <v>273</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>72</v>
       </c>
@@ -6348,22 +6366,22 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
@@ -6371,21 +6389,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>72</v>
@@ -6397,17 +6415,15 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>72</v>
@@ -6444,34 +6460,34 @@
         <v>72</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
@@ -6479,21 +6495,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>72</v>
@@ -6502,23 +6518,21 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>104</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>72</v>
       </c>
@@ -6554,34 +6568,34 @@
         <v>72</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>283</v>
+        <v>110</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -6589,10 +6603,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6615,18 +6629,20 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>72</v>
       </c>
@@ -6674,7 +6690,7 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -6689,7 +6705,7 @@
         <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -6697,10 +6713,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6708,7 +6724,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -6723,20 +6739,18 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>297</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>72</v>
       </c>
@@ -6745,7 +6759,7 @@
         <v>72</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>72</v>
@@ -6784,7 +6798,7 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -6799,7 +6813,7 @@
         <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6807,10 +6821,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6818,7 +6832,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6833,19 +6847,19 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>72</v>
@@ -6855,7 +6869,7 @@
         <v>72</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>72</v>
+        <v>304</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>72</v>
@@ -6894,7 +6908,7 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -6909,7 +6923,7 @@
         <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6917,10 +6931,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6943,19 +6957,19 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>72</v>
@@ -7004,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -7019,7 +7033,7 @@
         <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -7027,10 +7041,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7053,19 +7067,19 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>96</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>72</v>
@@ -7114,7 +7128,7 @@
         <v>72</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -7129,7 +7143,7 @@
         <v>93</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -7137,10 +7151,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7163,19 +7177,19 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>72</v>
@@ -7188,7 +7202,7 @@
         <v>72</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>72</v>
@@ -7224,7 +7238,7 @@
         <v>72</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -7239,7 +7253,7 @@
         <v>93</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -7247,10 +7261,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7273,18 +7287,20 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>72</v>
       </c>
@@ -7296,7 +7312,7 @@
         <v>72</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>72</v>
@@ -7332,7 +7348,7 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -7347,7 +7363,7 @@
         <v>93</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -7355,10 +7371,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7381,16 +7397,16 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7404,7 +7420,7 @@
         <v>72</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>72</v>
+        <v>345</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>72</v>
@@ -7440,7 +7456,7 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -7452,10 +7468,10 @@
         <v>92</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -7463,10 +7479,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7489,16 +7505,16 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7548,7 +7564,7 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -7560,10 +7576,10 @@
         <v>92</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -7571,14 +7587,12 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>72</v>
       </c>
@@ -7599,18 +7613,18 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>72</v>
       </c>
@@ -7658,35 +7672,37 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>226</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>233</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>72</v>
       </c>
@@ -7704,19 +7720,21 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>72</v>
       </c>
@@ -7764,44 +7782,44 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>72</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>72</v>
@@ -7813,17 +7831,15 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>72</v>
@@ -7860,34 +7876,34 @@
         <v>72</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7895,46 +7911,44 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>72</v>
       </c>
@@ -7958,46 +7972,46 @@
         <v>72</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -8005,10 +8019,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8016,7 +8030,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -8025,25 +8039,25 @@
         <v>72</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>72</v>
@@ -8068,13 +8082,13 @@
         <v>72</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>72</v>
@@ -8092,7 +8106,7 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
@@ -8107,7 +8121,7 @@
         <v>93</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -8115,10 +8129,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8126,7 +8140,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>80</v>
@@ -8138,19 +8152,23 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>72</v>
       </c>
@@ -8174,13 +8192,13 @@
         <v>72</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>72</v>
@@ -8198,7 +8216,7 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -8207,13 +8225,13 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -8221,21 +8239,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>72</v>
@@ -8247,17 +8265,15 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>72</v>
@@ -8294,34 +8310,34 @@
         <v>72</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -8329,14 +8345,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8352,23 +8368,21 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>72</v>
       </c>
@@ -8404,19 +8418,19 @@
         <v>72</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>73</v>
@@ -8428,10 +8442,10 @@
         <v>92</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>72</v>
@@ -8439,10 +8453,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8453,7 +8467,7 @@
         <v>73</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>72</v>
@@ -8462,19 +8476,23 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>97</v>
+        <v>273</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>72</v>
       </c>
@@ -8522,22 +8540,22 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -8545,21 +8563,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>72</v>
@@ -8571,17 +8589,15 @@
         <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>72</v>
@@ -8618,34 +8634,34 @@
         <v>72</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -8653,21 +8669,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>72</v>
@@ -8676,23 +8692,21 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>279</v>
+        <v>104</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>72</v>
       </c>
@@ -8728,34 +8742,34 @@
         <v>72</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>283</v>
+        <v>110</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -8763,10 +8777,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8789,18 +8803,20 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="N58" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>72</v>
       </c>
@@ -8848,7 +8864,7 @@
         <v>72</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -8863,7 +8879,7 @@
         <v>93</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8871,10 +8887,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8882,7 +8898,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -8897,20 +8913,18 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>297</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>72</v>
       </c>
@@ -8919,7 +8933,7 @@
         <v>72</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>375</v>
+        <v>72</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>72</v>
@@ -8958,7 +8972,7 @@
         <v>72</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
@@ -8973,7 +8987,7 @@
         <v>93</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
@@ -8981,10 +8995,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8992,7 +9006,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>80</v>
@@ -9007,19 +9021,19 @@
         <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>72</v>
@@ -9029,7 +9043,7 @@
         <v>72</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>72</v>
+        <v>381</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>72</v>
@@ -9068,7 +9082,7 @@
         <v>72</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -9083,7 +9097,7 @@
         <v>93</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -9091,10 +9105,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9117,19 +9131,19 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>72</v>
@@ -9178,7 +9192,7 @@
         <v>72</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
@@ -9193,7 +9207,7 @@
         <v>93</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -9201,10 +9215,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9227,19 +9241,19 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>96</v>
+        <v>316</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>72</v>
@@ -9288,7 +9302,7 @@
         <v>72</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -9303,7 +9317,7 @@
         <v>93</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -9311,10 +9325,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9337,19 +9351,19 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>72</v>
@@ -9362,7 +9376,7 @@
         <v>72</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>72</v>
@@ -9398,7 +9412,7 @@
         <v>72</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>73</v>
@@ -9413,7 +9427,7 @@
         <v>93</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -9421,10 +9435,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9447,18 +9461,20 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O64" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>72</v>
       </c>
@@ -9470,7 +9486,7 @@
         <v>72</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>72</v>
@@ -9506,7 +9522,7 @@
         <v>72</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
@@ -9521,7 +9537,7 @@
         <v>93</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -9529,10 +9545,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9555,16 +9571,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9578,7 +9594,7 @@
         <v>72</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>72</v>
+        <v>345</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>72</v>
@@ -9614,7 +9630,7 @@
         <v>72</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>73</v>
@@ -9626,10 +9642,10 @@
         <v>92</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -9637,10 +9653,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9663,16 +9679,16 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9722,7 +9738,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -9734,10 +9750,10 @@
         <v>92</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -9745,10 +9761,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9765,22 +9781,22 @@
         <v>72</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>164</v>
+        <v>359</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9806,13 +9822,13 @@
         <v>72</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>386</v>
+        <v>72</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>387</v>
+        <v>72</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>72</v>
@@ -9830,7 +9846,7 @@
         <v>72</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>73</v>
@@ -9842,21 +9858,21 @@
         <v>92</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>389</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9873,22 +9889,22 @@
         <v>72</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>393</v>
+        <v>302</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9914,13 +9930,13 @@
         <v>72</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>72</v>
@@ -9938,7 +9954,7 @@
         <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>73</v>
@@ -9953,10 +9969,10 @@
         <v>93</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>144</v>
+        <v>394</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69">
@@ -9987,7 +10003,7 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>397</v>
@@ -10022,13 +10038,13 @@
         <v>72</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>72</v>
+        <v>400</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>72</v>
+        <v>401</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>72</v>
@@ -10061,18 +10077,18 @@
         <v>93</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>400</v>
+        <v>144</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>72</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10083,7 +10099,7 @@
         <v>73</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>72</v>
@@ -10092,23 +10108,21 @@
         <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O70" t="s" s="2">
         <v>405</v>
       </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>72</v>
       </c>
@@ -10144,25 +10158,25 @@
         <v>72</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>406</v>
+        <v>72</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>92</v>
@@ -10171,7 +10185,7 @@
         <v>93</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -10182,11 +10196,9 @@
         <v>407</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>72</v>
       </c>
@@ -10195,7 +10207,7 @@
         <v>73</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>72</v>
@@ -10210,16 +10222,16 @@
         <v>96</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>72</v>
@@ -10256,19 +10268,19 @@
         <v>72</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>72</v>
+        <v>412</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
@@ -10283,7 +10295,7 @@
         <v>93</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -10291,12 +10303,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>72</v>
       </c>
@@ -10314,22 +10328,22 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>72</v>
@@ -10378,13 +10392,13 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>92</v>
@@ -10393,7 +10407,7 @@
         <v>93</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -10401,10 +10415,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10427,16 +10441,16 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>417</v>
+        <v>302</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>418</v>
@@ -10464,13 +10478,13 @@
         <v>72</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>416</v>
+        <v>72</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>419</v>
+        <v>72</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>72</v>
@@ -10488,7 +10502,7 @@
         <v>72</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
@@ -10503,18 +10517,18 @@
         <v>93</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>421</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10537,18 +10551,20 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="N74" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>72</v>
       </c>
@@ -10574,9 +10590,11 @@
       <c r="X74" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y74" s="2"/>
+      <c r="Y74" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="Z74" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>72</v>
@@ -10594,13 +10612,13 @@
         <v>72</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>92</v>
@@ -10609,10 +10627,10 @@
         <v>93</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="75">
@@ -10631,7 +10649,7 @@
         <v>73</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>72</v>
@@ -10640,18 +10658,20 @@
         <v>72</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>72</v>
@@ -10676,13 +10696,11 @@
         <v>72</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>72</v>
+        <v>432</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>72</v>
@@ -10712,13 +10730,13 @@
         <v>92</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>432</v>
+        <v>93</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>433</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>72</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76">
@@ -10737,7 +10755,7 @@
         <v>73</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>72</v>
@@ -10749,13 +10767,13 @@
         <v>72</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10806,22 +10824,22 @@
         <v>72</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>99</v>
+        <v>434</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>72</v>
+        <v>438</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>100</v>
+        <v>439</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10829,10 +10847,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10840,10 +10858,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>436</v>
+        <v>73</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>72</v>
@@ -10855,13 +10873,13 @@
         <v>72</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10900,34 +10918,34 @@
         <v>72</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
@@ -10935,23 +10953,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>72</v>
@@ -10963,13 +10979,13 @@
         <v>72</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>439</v>
+        <v>103</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>440</v>
+        <v>189</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>441</v>
+        <v>190</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11008,16 +11024,16 @@
         <v>72</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>110</v>
@@ -11046,7 +11062,7 @@
         <v>442</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>443</v>
@@ -11056,7 +11072,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>80</v>
@@ -11154,7 +11170,7 @@
         <v>447</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>448</v>
@@ -11164,7 +11180,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>80</v>
@@ -11262,15 +11278,17 @@
         <v>452</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="D81" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>80</v>
@@ -11282,20 +11300,18 @@
         <v>72</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>164</v>
+        <v>454</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>72</v>
@@ -11320,13 +11336,13 @@
         <v>72</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>455</v>
+        <v>72</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>456</v>
+        <v>72</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>72</v>
@@ -11344,22 +11360,22 @@
         <v>72</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>457</v>
+        <v>110</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>458</v>
+        <v>92</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>459</v>
+        <v>72</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>72</v>
@@ -11367,10 +11383,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11378,7 +11394,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>80</v>
@@ -11393,20 +11409,18 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>72</v>
       </c>
@@ -11430,13 +11444,13 @@
         <v>72</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>72</v>
+        <v>460</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>72</v>
+        <v>461</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>72</v>
@@ -11454,7 +11468,7 @@
         <v>72</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>73</v>
@@ -11463,13 +11477,13 @@
         <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>92</v>
+        <v>463</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>72</v>
@@ -11477,10 +11491,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11488,7 +11502,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>80</v>
@@ -11497,25 +11511,25 @@
         <v>72</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>72</v>
@@ -11540,13 +11554,13 @@
         <v>72</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>472</v>
+        <v>72</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>473</v>
+        <v>72</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>72</v>
@@ -11564,7 +11578,7 @@
         <v>72</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>73</v>
@@ -11579,7 +11593,7 @@
         <v>93</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -11587,10 +11601,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11607,24 +11621,26 @@
         <v>72</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>477</v>
+        <v>164</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>72</v>
       </c>
@@ -11648,13 +11664,13 @@
         <v>72</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>72</v>
+        <v>477</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>72</v>
+        <v>478</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>72</v>
@@ -11672,7 +11688,7 @@
         <v>72</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>73</v>
@@ -11687,7 +11703,7 @@
         <v>93</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11695,10 +11711,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11721,7 +11737,7 @@
         <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>344</v>
+        <v>482</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>483</v>
@@ -11730,7 +11746,7 @@
         <v>484</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>347</v>
+        <v>485</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11780,7 +11796,7 @@
         <v>72</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>73</v>
@@ -11792,10 +11808,10 @@
         <v>92</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>486</v>
+        <v>100</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>72</v>
@@ -11826,23 +11842,21 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="N86" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>72</v>
       </c>
@@ -11890,7 +11904,7 @@
         <v>72</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>73</v>
@@ -11902,10 +11916,10 @@
         <v>92</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>93</v>
+        <v>355</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -11913,10 +11927,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11939,16 +11953,20 @@
         <v>72</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>96</v>
+        <v>493</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>97</v>
+        <v>494</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>72</v>
       </c>
@@ -11996,7 +12014,7 @@
         <v>72</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>99</v>
+        <v>492</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>73</v>
@@ -12005,13 +12023,13 @@
         <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>100</v>
+        <v>498</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -12019,21 +12037,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>72</v>
@@ -12045,17 +12063,15 @@
         <v>72</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>72</v>
@@ -12092,34 +12108,34 @@
         <v>72</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
@@ -12127,46 +12143,44 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>497</v>
+        <v>104</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>498</v>
+        <v>105</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>72</v>
       </c>
@@ -12178,7 +12192,7 @@
         <v>72</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>501</v>
+        <v>72</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>72</v>
@@ -12190,46 +12204,46 @@
         <v>72</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>502</v>
+        <v>72</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>503</v>
+        <v>72</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>504</v>
+        <v>110</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>475</v>
+        <v>94</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
@@ -12237,10 +12251,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12257,7 +12271,7 @@
         <v>72</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>81</v>
@@ -12266,15 +12280,17 @@
         <v>164</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>72</v>
       </c>
@@ -12286,7 +12302,7 @@
         <v>72</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>72</v>
@@ -12301,10 +12317,10 @@
         <v>156</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>72</v>
@@ -12322,7 +12338,7 @@
         <v>72</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>73</v>
@@ -12337,7 +12353,7 @@
         <v>93</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -12345,10 +12361,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12371,20 +12387,18 @@
         <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>72</v>
       </c>
@@ -12396,7 +12410,7 @@
         <v>72</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>72</v>
@@ -12408,13 +12422,13 @@
         <v>72</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>72</v>
+        <v>515</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>72</v>
+        <v>516</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>72</v>
@@ -12432,7 +12446,7 @@
         <v>72</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>73</v>
@@ -12447,7 +12461,7 @@
         <v>93</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -12455,10 +12469,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12469,7 +12483,7 @@
         <v>73</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>72</v>
@@ -12484,15 +12498,17 @@
         <v>96</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="O92" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>72</v>
       </c>
@@ -12504,49 +12520,49 @@
         <v>72</v>
       </c>
       <c r="T92" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF92" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="U92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="AG92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>92</v>
@@ -12555,7 +12571,7 @@
         <v>93</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -12563,10 +12579,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12577,7 +12593,7 @@
         <v>73</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>72</v>
@@ -12586,18 +12602,20 @@
         <v>72</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>97</v>
+        <v>527</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>72</v>
@@ -12610,7 +12628,7 @@
         <v>72</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>72</v>
+        <v>529</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>72</v>
@@ -12646,22 +12664,22 @@
         <v>72</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>99</v>
+        <v>530</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>100</v>
+        <v>531</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -12669,21 +12687,21 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>72</v>
@@ -12695,17 +12713,15 @@
         <v>72</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>72</v>
@@ -12742,34 +12758,34 @@
         <v>72</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12777,23 +12793,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>72</v>
@@ -12805,15 +12819,17 @@
         <v>72</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>531</v>
+        <v>103</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>532</v>
+        <v>104</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>72</v>
@@ -12850,16 +12866,16 @@
         <v>72</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>110</v>
@@ -12877,7 +12893,7 @@
         <v>111</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>534</v>
+        <v>94</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>72</v>
@@ -12885,13 +12901,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>72</v>
@@ -12913,13 +12929,13 @@
         <v>72</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12985,7 +13001,7 @@
         <v>111</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>72</v>
@@ -12993,13 +13009,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C97" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>72</v>
@@ -13021,13 +13037,13 @@
         <v>72</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13093,7 +13109,7 @@
         <v>111</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>72</v>
@@ -13101,13 +13117,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C98" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>72</v>
@@ -13129,13 +13145,13 @@
         <v>72</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13201,7 +13217,7 @@
         <v>111</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -13209,13 +13225,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C99" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>72</v>
@@ -13237,13 +13253,13 @@
         <v>72</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13309,7 +13325,7 @@
         <v>111</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -13317,12 +13333,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C100" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="B100" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
         <v>72</v>
       </c>
@@ -13343,13 +13361,13 @@
         <v>72</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>96</v>
+        <v>560</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>97</v>
+        <v>561</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>98</v>
+        <v>562</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13400,22 +13418,22 @@
         <v>72</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>100</v>
+        <v>563</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -13423,21 +13441,21 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>72</v>
@@ -13449,17 +13467,15 @@
         <v>72</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>72</v>
@@ -13496,34 +13512,34 @@
         <v>72</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>72</v>
@@ -13531,21 +13547,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>72</v>
@@ -13557,16 +13573,16 @@
         <v>72</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>565</v>
+        <v>104</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>566</v>
+        <v>105</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>567</v>
+        <v>106</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13574,7 +13590,7 @@
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>568</v>
+        <v>72</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>72</v>
@@ -13604,31 +13620,31 @@
         <v>72</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>569</v>
+        <v>110</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>94</v>
@@ -13639,10 +13655,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13650,7 +13666,7 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>80</v>
@@ -13665,22 +13681,24 @@
         <v>72</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M103" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>72</v>
+        <v>573</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>72</v>
@@ -13710,29 +13728,31 @@
         <v>72</v>
       </c>
       <c r="AB103" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF103" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AC103" s="2"/>
-      <c r="AD103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="AG103" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>94</v>
@@ -13743,20 +13763,18 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>80</v>
@@ -13774,10 +13792,10 @@
         <v>96</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13804,29 +13822,29 @@
         <v>72</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y104" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z104" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB104" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="AA104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AC104" s="2"/>
       <c r="AD104" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>72</v>
+        <v>580</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>73</v>
@@ -13849,20 +13867,20 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>80</v>
@@ -13877,13 +13895,13 @@
         <v>72</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>582</v>
+        <v>96</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13910,13 +13928,11 @@
         <v>72</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y105" s="2"/>
       <c r="Z105" t="s" s="2">
-        <v>72</v>
+        <v>584</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>72</v>
@@ -13934,22 +13950,22 @@
         <v>72</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>110</v>
+        <v>581</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>585</v>
+        <v>94</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
@@ -13957,13 +13973,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C106" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>72</v>
@@ -13985,13 +14001,13 @@
         <v>72</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="L106" t="s" s="2">
         <v>588</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14057,7 +14073,7 @@
         <v>111</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>72</v>
@@ -14065,13 +14081,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>72</v>
@@ -14093,13 +14109,13 @@
         <v>72</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14165,7 +14181,7 @@
         <v>111</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>72</v>
@@ -14173,12 +14189,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C108" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="B108" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>72</v>
       </c>
@@ -14199,13 +14217,13 @@
         <v>72</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>96</v>
+        <v>596</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14229,7 +14247,7 @@
         <v>72</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>597</v>
+        <v>72</v>
       </c>
       <c r="X108" t="s" s="2">
         <v>72</v>
@@ -14256,22 +14274,22 @@
         <v>72</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>598</v>
+        <v>110</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>72</v>
+        <v>599</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>72</v>
@@ -14279,14 +14297,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>600</v>
+        <v>72</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14302,7 +14320,7 @@
         <v>72</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>96</v>
@@ -14311,11 +14329,9 @@
         <v>601</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>72</v>
@@ -14328,44 +14344,44 @@
         <v>72</v>
       </c>
       <c r="T109" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF109" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="U109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="AG109" t="s" s="2">
         <v>73</v>
       </c>
@@ -14373,13 +14389,13 @@
         <v>80</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>605</v>
+        <v>72</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>72</v>
@@ -14387,14 +14403,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14416,13 +14432,13 @@
         <v>96</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>610</v>
+        <v>302</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14436,7 +14452,7 @@
         <v>72</v>
       </c>
       <c r="T110" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="U110" t="s" s="2">
         <v>72</v>
@@ -14472,7 +14488,7 @@
         <v>72</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>73</v>
@@ -14487,7 +14503,7 @@
         <v>93</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>72</v>
@@ -14495,14 +14511,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -14524,13 +14540,13 @@
         <v>96</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>296</v>
+        <v>615</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -14544,7 +14560,7 @@
         <v>72</v>
       </c>
       <c r="T111" t="s" s="2">
-        <v>72</v>
+        <v>616</v>
       </c>
       <c r="U111" t="s" s="2">
         <v>72</v>
@@ -14580,7 +14596,7 @@
         <v>72</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>73</v>
@@ -14595,7 +14611,7 @@
         <v>93</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>72</v>
@@ -14603,14 +14619,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -14632,13 +14648,13 @@
         <v>96</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="M112" t="s" s="2">
-        <v>623</v>
-      </c>
       <c r="N112" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14652,7 +14668,7 @@
         <v>72</v>
       </c>
       <c r="T112" t="s" s="2">
-        <v>624</v>
+        <v>72</v>
       </c>
       <c r="U112" t="s" s="2">
         <v>72</v>
@@ -14688,7 +14704,7 @@
         <v>72</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>73</v>
@@ -14703,7 +14719,7 @@
         <v>93</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>72</v>
@@ -14711,14 +14727,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>72</v>
+        <v>626</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -14740,13 +14756,13 @@
         <v>96</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="M113" t="s" s="2">
-        <v>629</v>
-      </c>
       <c r="N113" t="s" s="2">
-        <v>630</v>
+        <v>302</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -14760,7 +14776,7 @@
         <v>72</v>
       </c>
       <c r="T113" t="s" s="2">
-        <v>72</v>
+        <v>629</v>
       </c>
       <c r="U113" t="s" s="2">
         <v>72</v>
@@ -14796,7 +14812,7 @@
         <v>72</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>73</v>
@@ -14811,7 +14827,7 @@
         <v>93</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>72</v>
@@ -14819,10 +14835,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14845,20 +14861,18 @@
         <v>81</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>344</v>
+        <v>96</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="N114" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>636</v>
-      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>72</v>
       </c>
@@ -14870,7 +14884,7 @@
         <v>72</v>
       </c>
       <c r="T114" t="s" s="2">
-        <v>637</v>
+        <v>72</v>
       </c>
       <c r="U114" t="s" s="2">
         <v>72</v>
@@ -14906,7 +14920,7 @@
         <v>72</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>73</v>
@@ -14918,10 +14932,10 @@
         <v>92</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>486</v>
+        <v>637</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>72</v>
@@ -14929,10 +14943,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14955,19 +14969,19 @@
         <v>81</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>253</v>
+        <v>350</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O115" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>72</v>
@@ -14980,7 +14994,7 @@
         <v>72</v>
       </c>
       <c r="T115" t="s" s="2">
-        <v>72</v>
+        <v>642</v>
       </c>
       <c r="U115" t="s" s="2">
         <v>72</v>
@@ -14992,31 +15006,31 @@
         <v>72</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="Y115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF115" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>73</v>
@@ -15028,21 +15042,21 @@
         <v>92</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>93</v>
+        <v>355</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>645</v>
+        <v>491</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>421</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15062,20 +15076,22 @@
         <v>72</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O116" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>72</v>
@@ -15100,13 +15116,13 @@
         <v>72</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>72</v>
+        <v>648</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>72</v>
+        <v>649</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>72</v>
@@ -15124,7 +15140,7 @@
         <v>72</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>73</v>
@@ -15139,18 +15155,18 @@
         <v>93</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>72</v>
+        <v>427</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15173,16 +15189,18 @@
         <v>72</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>96</v>
+        <v>652</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>97</v>
+        <v>653</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>98</v>
+        <v>654</v>
       </c>
       <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>655</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>72</v>
       </c>
@@ -15230,7 +15248,7 @@
         <v>72</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>99</v>
+        <v>651</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>73</v>
@@ -15239,13 +15257,13 @@
         <v>80</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>100</v>
+        <v>656</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>72</v>
@@ -15253,21 +15271,21 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>72</v>
@@ -15279,17 +15297,15 @@
         <v>72</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>72</v>
@@ -15326,34 +15342,34 @@
         <v>72</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>72</v>
@@ -15361,23 +15377,21 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>655</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>72</v>
@@ -15389,16 +15403,16 @@
         <v>72</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>656</v>
+        <v>103</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>657</v>
+        <v>104</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>649</v>
+        <v>105</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>658</v>
+        <v>106</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -15436,16 +15450,16 @@
         <v>72</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC119" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD119" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>110</v>
@@ -15474,43 +15488,43 @@
         <v>659</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="C120" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="D120" t="s" s="2">
-        <v>660</v>
+        <v>72</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>103</v>
+        <v>661</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>72</v>
       </c>
@@ -15558,7 +15572,7 @@
         <v>72</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>663</v>
+        <v>110</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>73</v>
@@ -15588,26 +15602,26 @@
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>72</v>
+        <v>665</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>665</v>
+        <v>103</v>
       </c>
       <c r="L121" t="s" s="2">
         <v>666</v>
@@ -15616,9 +15630,11 @@
         <v>667</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="O121" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>72</v>
       </c>
@@ -15666,22 +15682,22 @@
         <v>72</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>669</v>
+        <v>94</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>72</v>
@@ -15689,10 +15705,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15715,7 +15731,7 @@
         <v>72</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>671</v>
@@ -15724,7 +15740,7 @@
         <v>672</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -15774,7 +15790,7 @@
         <v>72</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -15789,7 +15805,7 @@
         <v>93</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>72</v>
@@ -15797,10 +15813,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15808,7 +15824,7 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>80</v>
@@ -15823,16 +15839,16 @@
         <v>72</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -15882,10 +15898,10 @@
         <v>72</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>80</v>
@@ -15897,7 +15913,7 @@
         <v>93</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>72</v>
@@ -15905,10 +15921,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15928,23 +15944,21 @@
         <v>72</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>353</v>
+        <v>670</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>680</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>72</v>
       </c>
@@ -15992,7 +16006,7 @@
         <v>72</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>73</v>
@@ -16004,10 +16018,10 @@
         <v>92</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>358</v>
+        <v>93</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>72</v>
@@ -16015,10 +16029,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16038,22 +16052,22 @@
         <v>72</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="O125" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>72</v>
@@ -16102,7 +16116,7 @@
         <v>72</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>73</v>
@@ -16114,10 +16128,10 @@
         <v>92</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>72</v>
@@ -16125,10 +16139,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16139,7 +16153,7 @@
         <v>73</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>72</v>
@@ -16151,18 +16165,20 @@
         <v>72</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>647</v>
+        <v>688</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="N126" t="s" s="2">
+      <c r="O126" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>72</v>
       </c>
@@ -16210,19 +16226,19 @@
         <v>72</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>693</v>
@@ -16247,7 +16263,7 @@
         <v>73</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>72</v>
@@ -16259,15 +16275,17 @@
         <v>72</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>96</v>
+        <v>652</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>97</v>
+        <v>695</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>696</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>697</v>
+      </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>72</v>
@@ -16316,22 +16334,22 @@
         <v>72</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>99</v>
+        <v>694</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>100</v>
+        <v>698</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>72</v>
@@ -16339,21 +16357,21 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>72</v>
@@ -16365,17 +16383,15 @@
         <v>72</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N128" s="2"/>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>72</v>
@@ -16412,34 +16428,34 @@
         <v>72</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AC128" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AD128" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>72</v>
@@ -16447,14 +16463,14 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>660</v>
+        <v>102</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -16467,26 +16483,24 @@
         <v>72</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>661</v>
+        <v>104</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>662</v>
+        <v>105</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="O129" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>72</v>
       </c>
@@ -16522,19 +16536,19 @@
         <v>72</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AC129" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="AD129" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>663</v>
+        <v>110</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>73</v>
@@ -16557,14 +16571,14 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>72</v>
+        <v>665</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -16577,24 +16591,26 @@
         <v>72</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>699</v>
+        <v>667</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O130" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P130" t="s" s="2">
         <v>72</v>
       </c>
@@ -16618,13 +16634,13 @@
         <v>72</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>700</v>
+        <v>72</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>701</v>
+        <v>72</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>72</v>
@@ -16642,7 +16658,7 @@
         <v>72</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>73</v>
@@ -16654,10 +16670,10 @@
         <v>92</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>693</v>
+        <v>94</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>72</v>
@@ -16679,7 +16695,7 @@
         <v>73</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>72</v>
@@ -16691,7 +16707,7 @@
         <v>72</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>703</v>
@@ -16699,7 +16715,9 @@
       <c r="M131" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="N131" s="2"/>
+      <c r="N131" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
         <v>72</v>
@@ -16724,13 +16742,13 @@
         <v>72</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>72</v>
+        <v>705</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>72</v>
+        <v>706</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>72</v>
@@ -16754,7 +16772,7 @@
         <v>73</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>92</v>
@@ -16763,7 +16781,7 @@
         <v>93</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>72</v>
@@ -16771,10 +16789,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16797,13 +16815,13 @@
         <v>72</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>706</v>
+        <v>316</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16854,7 +16872,7 @@
         <v>72</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>73</v>
@@ -16869,7 +16887,7 @@
         <v>93</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>72</v>
@@ -16877,10 +16895,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16903,13 +16921,13 @@
         <v>72</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -16960,7 +16978,7 @@
         <v>72</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>73</v>
@@ -16975,7 +16993,7 @@
         <v>93</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>72</v>
@@ -16983,10 +17001,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17009,17 +17027,15 @@
         <v>72</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>96</v>
+        <v>711</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="N134" s="2"/>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
         <v>72</v>
@@ -17068,7 +17084,7 @@
         <v>72</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>73</v>
@@ -17083,7 +17099,7 @@
         <v>93</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>100</v>
+        <v>698</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>72</v>
@@ -17091,10 +17107,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17105,7 +17121,7 @@
         <v>73</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>72</v>
@@ -17117,20 +17133,18 @@
         <v>72</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>716</v>
+        <v>96</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>719</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>72</v>
       </c>
@@ -17178,24 +17192,134 @@
         <v>72</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>358</v>
+        <v>93</v>
       </c>
       <c r="AK135" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="AL135" t="s" s="2">
+      <c r="B136" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="O136" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="P136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q136" s="2"/>
+      <c r="R136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="AL136" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:30:28+00:00</t>
+    <t>2023-03-27T14:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:49:55+00:00</t>
+    <t>2023-03-28T07:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T07:26:22+00:00</t>
+    <t>2023-03-28T08:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T08:50:23+00:00</t>
+    <t>2023-03-28T13:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T13:00:55+00:00</t>
+    <t>2023-03-29T15:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T15:26:54+00:00</t>
+    <t>2023-03-30T07:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T07:20:01+00:00</t>
+    <t>2023-03-30T08:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T08:12:51+00:00</t>
+    <t>2023-03-31T06:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T06:57:00+00:00</t>
+    <t>2023-04-05T09:21:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -617,7 +617,7 @@
     <t>ror-location-status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-status}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location-status}
 </t>
   </si>
   <si>
@@ -633,7 +633,7 @@
     <t>ror-commune-cog</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-commune-cog}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-commune-cog}
 </t>
   </si>
   <si>
@@ -649,7 +649,7 @@
     <t>ror-location-equipment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-equipment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location-equipment}
 </t>
   </si>
   <si>
@@ -665,7 +665,7 @@
     <t>ror-location-equipment-limit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-equipment-limit}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location-equipment-limit}
 </t>
   </si>
   <si>
@@ -681,7 +681,7 @@
     <t>ror-location-residential-capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-residential-capacity}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location-residential-capacity}
 </t>
   </si>
   <si>
@@ -697,7 +697,7 @@
     <t>ror-location-supported-capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-supported-capacity}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location-supported-capacity}
 </t>
   </si>
   <si>
@@ -713,14 +713,14 @@
     <t>ror-meta-creation-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-meta-creation-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-meta-creation-date}
 </t>
   </si>
   <si>
     <t>dateCreation (Metadonnee)</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régionnal) présente dans les métadonnées.</t>
+    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régional) présente dans les métadonnées.</t>
   </si>
   <si>
     <t>Location.modifierExtension</t>
@@ -1387,7 +1387,7 @@
     <t>ror-telecom-communication-channel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-communication-channel}
 </t>
   </si>
   <si>
@@ -1403,7 +1403,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -1419,7 +1419,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -2060,7 +2060,7 @@
     <t>ror-location-geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-geolocation}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location-geolocation}
 </t>
   </si>
   <si>
@@ -2574,7 +2574,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="101.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4674" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="725">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:21:20+00:00</t>
+    <t>2023-04-07T12:46:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2065,9 +2065,6 @@
   </si>
   <si>
     <t>systemeGeodesique : Une identification du système de référence fixant les règles de mesure des positions géographiques (CoordonneeGeographique)</t>
-  </si>
-  <si>
-    <t>The extension can be further extended to include unique geolocation identifiers, confidence, altitude, etc.</t>
   </si>
   <si>
     <t>Location.position.modifierExtension</t>
@@ -15519,11 +15516,9 @@
         <v>662</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>663</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>72</v>
@@ -15587,7 +15582,7 @@
         <v>111</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>72</v>
@@ -15595,14 +15590,14 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -15624,10 +15619,10 @@
         <v>103</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>106</v>
@@ -15682,7 +15677,7 @@
         <v>72</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>73</v>
@@ -15705,10 +15700,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15731,16 +15726,16 @@
         <v>72</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="M122" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -15790,7 +15785,7 @@
         <v>72</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -15805,7 +15800,7 @@
         <v>93</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>72</v>
@@ -15813,10 +15808,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15839,16 +15834,16 @@
         <v>72</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="M123" t="s" s="2">
-        <v>677</v>
-      </c>
       <c r="N123" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -15898,7 +15893,7 @@
         <v>72</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -15913,7 +15908,7 @@
         <v>93</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>72</v>
@@ -15921,10 +15916,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15947,16 +15942,16 @@
         <v>72</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="M124" t="s" s="2">
-        <v>680</v>
-      </c>
       <c r="N124" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -16006,7 +16001,7 @@
         <v>72</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>73</v>
@@ -16021,7 +16016,7 @@
         <v>93</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>72</v>
@@ -16029,10 +16024,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16058,16 +16053,16 @@
         <v>359</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="N125" t="s" s="2">
+      <c r="O125" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>685</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>72</v>
@@ -16116,7 +16111,7 @@
         <v>72</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>73</v>
@@ -16131,7 +16126,7 @@
         <v>364</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>72</v>
@@ -16139,10 +16134,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16165,19 +16160,19 @@
         <v>72</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="N126" t="s" s="2">
+      <c r="O126" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>72</v>
@@ -16226,7 +16221,7 @@
         <v>72</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>73</v>
@@ -16241,7 +16236,7 @@
         <v>364</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>72</v>
@@ -16249,10 +16244,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16278,13 +16273,13 @@
         <v>652</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
@@ -16334,7 +16329,7 @@
         <v>72</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>73</v>
@@ -16349,7 +16344,7 @@
         <v>93</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>72</v>
@@ -16357,10 +16352,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -16463,10 +16458,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16571,14 +16566,14 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -16600,10 +16595,10 @@
         <v>103</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="N130" t="s" s="2">
         <v>106</v>
@@ -16658,7 +16653,7 @@
         <v>72</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>73</v>
@@ -16681,10 +16676,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -16710,10 +16705,10 @@
         <v>164</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="N131" t="s" s="2">
         <v>302</v>
@@ -16745,11 +16740,11 @@
         <v>156</v>
       </c>
       <c r="Y131" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="Z131" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="Z131" t="s" s="2">
-        <v>706</v>
-      </c>
       <c r="AA131" t="s" s="2">
         <v>72</v>
       </c>
@@ -16766,7 +16761,7 @@
         <v>72</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>73</v>
@@ -16781,7 +16776,7 @@
         <v>93</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>72</v>
@@ -16789,10 +16784,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16818,10 +16813,10 @@
         <v>316</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>708</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>709</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16872,7 +16867,7 @@
         <v>72</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>73</v>
@@ -16887,7 +16882,7 @@
         <v>93</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>72</v>
@@ -16895,10 +16890,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16921,13 +16916,13 @@
         <v>72</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>711</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>712</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>713</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -16978,7 +16973,7 @@
         <v>72</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>73</v>
@@ -16993,7 +16988,7 @@
         <v>93</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>72</v>
@@ -17001,10 +16996,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17027,13 +17022,13 @@
         <v>72</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -17084,7 +17079,7 @@
         <v>72</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>73</v>
@@ -17099,7 +17094,7 @@
         <v>93</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>72</v>
@@ -17107,10 +17102,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17136,10 +17131,10 @@
         <v>96</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>719</v>
       </c>
       <c r="N135" t="s" s="2">
         <v>302</v>
@@ -17192,7 +17187,7 @@
         <v>72</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>73</v>
@@ -17215,10 +17210,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -17241,19 +17236,19 @@
         <v>72</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="L136" t="s" s="2">
         <v>721</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="M136" t="s" s="2">
         <v>722</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="O136" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>72</v>
@@ -17302,7 +17297,7 @@
         <v>72</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>73</v>
@@ -17317,7 +17312,7 @@
         <v>364</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>72</v>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T12:46:16+00:00</t>
+    <t>2023-04-07T13:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:22:07+00:00</t>
+    <t>2023-04-07T13:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:37:24+00:00</t>
+    <t>2023-04-07T14:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:29:23+00:00</t>
+    <t>2023-04-07T14:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:34:36+00:00</t>
+    <t>2023-04-07T15:03:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T15:03:36+00:00</t>
+    <t>2023-04-11T08:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:38:10+00:00</t>
+    <t>2023-04-11T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1391,7 +1391,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">canal (Telecommunication) : Code spécifiant le canal ou la manière dont s'établit la communication </t>
+    <t>canal (Telecommunication) : Code spécifiant le canal ou la manière dont s'établit la communication</t>
   </si>
   <si>
     <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
@@ -1407,7 +1407,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">utilisation (Telecommunication) : Utilisation du canal de communication </t>
+    <t>utilisation (Telecommunication) : Utilisation du canal de communication</t>
   </si>
   <si>
     <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
@@ -1457,7 +1457,7 @@
     <t>Location.telecom.value</t>
   </si>
   <si>
-    <t>adresseTelecom (Telecommunication) : Valeur de l'adresse de télécommunication dans le format induit par le canal de communica</t>
+    <t>adresseTelecom (Telecommunication) : Valeur de l'adresse de télécommunication dans le format induit par le canal de communication</t>
   </si>
   <si>
     <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:56:12+00:00</t>
+    <t>2023-04-11T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:15:18+00:00</t>
+    <t>2023-04-11T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:01+00:00</t>
+    <t>2023-04-11T09:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-location.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:36+00:00</t>
+    <t>2023-04-11T09:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
